--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="sheet 4" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'sheet 4'!$A$1:$AB$469</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="73">
   <si>
     <t>SKU_Modelo</t>
   </si>
@@ -222,15 +225,41 @@
   <si>
     <t>proPrice</t>
   </si>
+  <si>
+    <t>tipoLinea1</t>
+  </si>
+  <si>
+    <t>tipoLinea2</t>
+  </si>
+  <si>
+    <t>tipoLinea3</t>
+  </si>
+  <si>
+    <t>rateLinea1</t>
+  </si>
+  <si>
+    <t>rateLinea2</t>
+  </si>
+  <si>
+    <t>rateLinea3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,290 +355,307 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="284" applyFont="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="284" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="285">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
+    <cellStyle name="Comma" xfId="284" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -744,6 +790,13 @@
     <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -878,6 +931,13 @@
     <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3594,10 +3654,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AB469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3606,10 +3667,12 @@
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -3634,14 +3697,32 @@
       <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" hidden="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3689,7 +3770,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" hidden="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3800,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" hidden="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3749,7 +3830,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" hidden="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3779,7 +3860,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" hidden="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3809,7 +3890,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" hidden="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3839,7 +3920,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" hidden="1">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3869,7 +3950,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" hidden="1">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -3899,7 +3980,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" hidden="1">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3929,7 +4010,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" hidden="1">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +4040,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" hidden="1">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -3989,7 +4070,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" hidden="1">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -4055,7 +4136,7 @@
         <v>236.32090194917032</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" hidden="1">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4085,7 +4166,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" hidden="1">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -4115,7 +4196,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" hidden="1">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -4145,7 +4226,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -4175,7 +4256,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4205,7 +4286,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -4235,7 +4316,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -4265,7 +4346,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -4295,7 +4376,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4325,7 +4406,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4355,7 +4436,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -4385,7 +4466,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4415,7 +4496,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4445,7 +4526,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +4556,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4586,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4535,7 +4616,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -4565,7 +4646,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4595,7 +4676,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -4625,7 +4706,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4655,7 +4736,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -4685,7 +4766,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -4715,7 +4796,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -4745,7 +4826,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4856,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -4805,7 +4886,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4916,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -4865,7 +4946,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -4895,7 +4976,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +5005,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -4953,7 +5034,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -4982,7 +5063,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +5092,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -5040,7 +5121,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5150,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -5098,7 +5179,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -5127,7 +5208,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -5156,7 +5237,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5266,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -5214,7 +5295,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -5243,7 +5324,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -5272,7 +5353,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -5301,7 +5382,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -5330,7 +5411,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -5359,7 +5440,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -5388,7 +5469,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -5417,7 +5498,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +5527,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -5475,7 +5556,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -5504,7 +5585,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -5533,7 +5614,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -5562,7 +5643,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -5591,7 +5672,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -5620,7 +5701,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -5649,7 +5730,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -5678,7 +5759,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -5707,7 +5788,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -5736,7 +5817,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -5765,7 +5846,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -5794,7 +5875,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -5823,7 +5904,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -5852,7 +5933,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -5881,7 +5962,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5991,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +6020,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -5968,7 +6049,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +6078,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -6026,7 +6107,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -6055,7 +6136,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -6084,7 +6165,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -6113,7 +6194,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -6142,7 +6223,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -6171,7 +6252,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -6200,7 +6281,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -6229,7 +6310,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -6258,7 +6339,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -6287,7 +6368,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
@@ -6316,7 +6397,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
@@ -6345,7 +6426,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -6374,7 +6455,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -6403,7 +6484,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -6432,7 +6513,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
@@ -6461,7 +6542,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -6490,7 +6571,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
@@ -6519,7 +6600,7 @@
         <v>0.37610000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -6548,7 +6629,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -6577,7 +6658,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -6606,7 +6687,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -6635,7 +6716,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -6664,7 +6745,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -6693,7 +6774,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -6722,7 +6803,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -6751,7 +6832,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -6780,7 +6861,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -6809,7 +6890,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -6838,7 +6919,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -6867,7 +6948,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
@@ -6896,7 +6977,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -6925,7 +7006,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -6954,7 +7035,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="2" t="s">
         <v>10</v>
       </c>
@@ -6983,7 +7064,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="2" t="s">
         <v>10</v>
       </c>
@@ -7012,7 +7093,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -7041,7 +7122,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -7070,7 +7151,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="2" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +7180,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -7128,7 +7209,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -7157,7 +7238,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -7186,7 +7267,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -7215,7 +7296,7 @@
         <v>0.31080000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -7244,7 +7325,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
@@ -7273,7 +7354,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
@@ -7302,7 +7383,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -7331,7 +7412,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7441,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -7389,7 +7470,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
@@ -7418,7 +7499,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
@@ -7447,7 +7528,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
@@ -7476,7 +7557,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
@@ -7505,7 +7586,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="2" t="s">
         <v>11</v>
       </c>
@@ -7534,7 +7615,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
@@ -7563,7 +7644,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
@@ -7592,7 +7673,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -7621,7 +7702,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
@@ -7650,7 +7731,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -7679,7 +7760,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -7708,7 +7789,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -7737,7 +7818,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -7766,7 +7847,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -7795,7 +7876,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
@@ -7824,7 +7905,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -7853,7 +7934,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
@@ -7882,7 +7963,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -7911,7 +7992,7 @@
         <v>0.32480000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="2" t="s">
         <v>13</v>
       </c>
@@ -7940,7 +8021,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="2" t="s">
         <v>13</v>
       </c>
@@ -7969,7 +8050,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="2" t="s">
         <v>13</v>
       </c>
@@ -7998,7 +8079,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
@@ -8027,7 +8108,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="2" t="s">
         <v>13</v>
       </c>
@@ -8056,7 +8137,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="2" t="s">
         <v>13</v>
       </c>
@@ -8085,7 +8166,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="2" t="s">
         <v>13</v>
       </c>
@@ -8114,7 +8195,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="2" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8224,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
@@ -8172,7 +8253,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="2" t="s">
         <v>13</v>
       </c>
@@ -8201,7 +8282,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="2" t="s">
         <v>13</v>
       </c>
@@ -8230,7 +8311,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="2" t="s">
         <v>13</v>
       </c>
@@ -8259,7 +8340,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="2" t="s">
         <v>14</v>
       </c>
@@ -8288,7 +8369,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="2" t="s">
         <v>14</v>
       </c>
@@ -8317,7 +8398,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="2" t="s">
         <v>14</v>
       </c>
@@ -8346,7 +8427,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="2" t="s">
         <v>14</v>
       </c>
@@ -8375,7 +8456,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -8404,7 +8485,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="2" t="s">
         <v>14</v>
       </c>
@@ -8433,7 +8514,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="2" t="s">
         <v>14</v>
       </c>
@@ -8462,7 +8543,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="2" t="s">
         <v>14</v>
       </c>
@@ -8491,7 +8572,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="2" t="s">
         <v>14</v>
       </c>
@@ -8520,7 +8601,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="2" t="s">
         <v>14</v>
       </c>
@@ -8549,7 +8630,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="2" t="s">
         <v>14</v>
       </c>
@@ -8578,7 +8659,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="2" t="s">
         <v>14</v>
       </c>
@@ -8607,7 +8688,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="2" t="s">
         <v>15</v>
       </c>
@@ -8636,7 +8717,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="2" t="s">
         <v>15</v>
       </c>
@@ -8665,7 +8746,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -8694,7 +8775,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="2" t="s">
         <v>15</v>
       </c>
@@ -8723,7 +8804,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="2" t="s">
         <v>15</v>
       </c>
@@ -8752,7 +8833,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="2" t="s">
         <v>15</v>
       </c>
@@ -8781,7 +8862,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="2" t="s">
         <v>15</v>
       </c>
@@ -8810,7 +8891,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="2" t="s">
         <v>15</v>
       </c>
@@ -8839,7 +8920,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="2" t="s">
         <v>15</v>
       </c>
@@ -8868,7 +8949,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="2" t="s">
         <v>15</v>
       </c>
@@ -8897,7 +8978,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="2" t="s">
         <v>15</v>
       </c>
@@ -8926,7 +9007,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="2" t="s">
         <v>15</v>
       </c>
@@ -8955,7 +9036,7 @@
         <v>0.24869999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -8984,7 +9065,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -9013,7 +9094,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -9042,7 +9123,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -9071,7 +9152,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -9100,7 +9181,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -9129,7 +9210,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -9158,7 +9239,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -9187,7 +9268,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -9216,7 +9297,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -9245,7 +9326,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -9274,7 +9355,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -9303,7 +9384,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
@@ -9332,7 +9413,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -9361,7 +9442,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -9390,7 +9471,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -9419,7 +9500,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" s="2" t="s">
         <v>17</v>
       </c>
@@ -9448,7 +9529,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="2" t="s">
         <v>17</v>
       </c>
@@ -9477,7 +9558,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="2" t="s">
         <v>17</v>
       </c>
@@ -9506,7 +9587,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" s="2" t="s">
         <v>17</v>
       </c>
@@ -9535,7 +9616,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" s="2" t="s">
         <v>17</v>
       </c>
@@ -9564,7 +9645,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" s="2" t="s">
         <v>17</v>
       </c>
@@ -9593,7 +9674,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" s="2" t="s">
         <v>17</v>
       </c>
@@ -9622,7 +9703,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -9651,7 +9732,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" s="2" t="s">
         <v>18</v>
       </c>
@@ -9680,7 +9761,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="2" t="s">
         <v>18</v>
       </c>
@@ -9709,7 +9790,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -9738,7 +9819,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1">
       <c r="A209" s="2" t="s">
         <v>18</v>
       </c>
@@ -9767,7 +9848,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -9796,7 +9877,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" s="2" t="s">
         <v>18</v>
       </c>
@@ -9825,7 +9906,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" s="2" t="s">
         <v>18</v>
       </c>
@@ -9854,7 +9935,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" s="2" t="s">
         <v>18</v>
       </c>
@@ -9883,7 +9964,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" s="2" t="s">
         <v>18</v>
       </c>
@@ -9912,7 +9993,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" s="2" t="s">
         <v>18</v>
       </c>
@@ -9941,7 +10022,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -9970,7 +10051,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" s="2" t="s">
         <v>18</v>
       </c>
@@ -9999,7 +10080,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218" s="2" t="s">
         <v>19</v>
       </c>
@@ -10028,7 +10109,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1">
       <c r="A219" s="2" t="s">
         <v>19</v>
       </c>
@@ -10057,7 +10138,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1">
       <c r="A220" s="2" t="s">
         <v>19</v>
       </c>
@@ -10086,7 +10167,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1">
       <c r="A221" s="2" t="s">
         <v>19</v>
       </c>
@@ -10115,7 +10196,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" hidden="1">
       <c r="A222" s="2" t="s">
         <v>19</v>
       </c>
@@ -10144,7 +10225,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1">
       <c r="A223" s="2" t="s">
         <v>19</v>
       </c>
@@ -10173,7 +10254,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1">
       <c r="A224" s="2" t="s">
         <v>19</v>
       </c>
@@ -10202,7 +10283,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="2" t="s">
         <v>19</v>
       </c>
@@ -10231,7 +10312,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="2" t="s">
         <v>19</v>
       </c>
@@ -10260,7 +10341,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="2" t="s">
         <v>19</v>
       </c>
@@ -10289,7 +10370,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" s="2" t="s">
         <v>19</v>
       </c>
@@ -10318,7 +10399,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" s="2" t="s">
         <v>19</v>
       </c>
@@ -10347,7 +10428,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" s="2" t="s">
         <v>20</v>
       </c>
@@ -10376,7 +10457,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="2" t="s">
         <v>20</v>
       </c>
@@ -10405,7 +10486,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="2" t="s">
         <v>20</v>
       </c>
@@ -10434,7 +10515,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="2" t="s">
         <v>20</v>
       </c>
@@ -10463,7 +10544,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="2" t="s">
         <v>20</v>
       </c>
@@ -10492,7 +10573,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="2" t="s">
         <v>20</v>
       </c>
@@ -10521,7 +10602,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="2" t="s">
         <v>20</v>
       </c>
@@ -10550,7 +10631,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="2" t="s">
         <v>20</v>
       </c>
@@ -10579,7 +10660,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="2" t="s">
         <v>20</v>
       </c>
@@ -10608,7 +10689,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="2" t="s">
         <v>20</v>
       </c>
@@ -10637,7 +10718,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="2" t="s">
         <v>20</v>
       </c>
@@ -10666,7 +10747,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="2" t="s">
         <v>20</v>
       </c>
@@ -10695,7 +10776,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="2" t="s">
         <v>21</v>
       </c>
@@ -10724,7 +10805,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="2" t="s">
         <v>21</v>
       </c>
@@ -10753,7 +10834,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="2" t="s">
         <v>21</v>
       </c>
@@ -10782,7 +10863,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="2" t="s">
         <v>21</v>
       </c>
@@ -10811,7 +10892,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="2" t="s">
         <v>21</v>
       </c>
@@ -10840,7 +10921,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="2" t="s">
         <v>21</v>
       </c>
@@ -10869,7 +10950,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="2" t="s">
         <v>21</v>
       </c>
@@ -10898,7 +10979,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="2" t="s">
         <v>21</v>
       </c>
@@ -10927,7 +11008,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" s="2" t="s">
         <v>21</v>
       </c>
@@ -10956,7 +11037,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251" s="2" t="s">
         <v>21</v>
       </c>
@@ -10985,7 +11066,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="2" t="s">
         <v>21</v>
       </c>
@@ -11014,7 +11095,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253" s="2" t="s">
         <v>21</v>
       </c>
@@ -11043,7 +11124,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="2" t="s">
         <v>22</v>
       </c>
@@ -11072,7 +11153,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255" s="2" t="s">
         <v>22</v>
       </c>
@@ -11101,7 +11182,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="2" t="s">
         <v>22</v>
       </c>
@@ -11130,7 +11211,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1">
       <c r="A257" s="2" t="s">
         <v>22</v>
       </c>
@@ -11159,7 +11240,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" s="2" t="s">
         <v>22</v>
       </c>
@@ -11188,7 +11269,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" s="2" t="s">
         <v>22</v>
       </c>
@@ -11217,7 +11298,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260" s="2" t="s">
         <v>22</v>
       </c>
@@ -11246,7 +11327,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261" s="2" t="s">
         <v>22</v>
       </c>
@@ -11275,7 +11356,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262" s="2" t="s">
         <v>22</v>
       </c>
@@ -11304,7 +11385,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" s="2" t="s">
         <v>22</v>
       </c>
@@ -11333,7 +11414,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" s="2" t="s">
         <v>22</v>
       </c>
@@ -11362,7 +11443,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265" s="2" t="s">
         <v>22</v>
       </c>
@@ -11391,7 +11472,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266" s="2" t="s">
         <v>23</v>
       </c>
@@ -11420,7 +11501,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267" s="2" t="s">
         <v>23</v>
       </c>
@@ -11449,7 +11530,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" s="2" t="s">
         <v>23</v>
       </c>
@@ -11478,7 +11559,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" s="2" t="s">
         <v>23</v>
       </c>
@@ -11507,7 +11588,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" s="2" t="s">
         <v>23</v>
       </c>
@@ -11536,7 +11617,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271" s="2" t="s">
         <v>23</v>
       </c>
@@ -11565,7 +11646,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272" s="2" t="s">
         <v>23</v>
       </c>
@@ -11594,7 +11675,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="2" t="s">
         <v>23</v>
       </c>
@@ -11623,7 +11704,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="2" t="s">
         <v>23</v>
       </c>
@@ -11652,7 +11733,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="2" t="s">
         <v>23</v>
       </c>
@@ -11681,7 +11762,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="2" t="s">
         <v>23</v>
       </c>
@@ -11710,7 +11791,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="2" t="s">
         <v>23</v>
       </c>
@@ -11739,7 +11820,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" hidden="1">
       <c r="A278" s="2" t="s">
         <v>24</v>
       </c>
@@ -11768,7 +11849,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="2" t="s">
         <v>24</v>
       </c>
@@ -11797,7 +11878,7 @@
         <v>0.40150000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="2" t="s">
         <v>24</v>
       </c>
@@ -11827,7 +11908,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="2" t="s">
         <v>24</v>
       </c>
@@ -11857,7 +11938,7 @@
       </c>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="2" t="s">
         <v>24</v>
       </c>
@@ -11887,7 +11968,7 @@
       </c>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="2" t="s">
         <v>24</v>
       </c>
@@ -11917,7 +11998,7 @@
       </c>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="2" t="s">
         <v>24</v>
       </c>
@@ -11947,7 +12028,7 @@
       </c>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="2" t="s">
         <v>24</v>
       </c>
@@ -11977,7 +12058,7 @@
       </c>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="2" t="s">
         <v>24</v>
       </c>
@@ -12007,7 +12088,7 @@
       </c>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="2" t="s">
         <v>24</v>
       </c>
@@ -12037,7 +12118,7 @@
       </c>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="2" t="s">
         <v>24</v>
       </c>
@@ -12067,7 +12148,7 @@
       </c>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="2" t="s">
         <v>24</v>
       </c>
@@ -12097,7 +12178,7 @@
       </c>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="2" t="s">
         <v>25</v>
       </c>
@@ -12127,7 +12208,7 @@
       </c>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="2" t="s">
         <v>25</v>
       </c>
@@ -12157,7 +12238,7 @@
       </c>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="2" t="s">
         <v>25</v>
       </c>
@@ -12187,7 +12268,7 @@
       </c>
       <c r="J292" s="2"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="2" t="s">
         <v>25</v>
       </c>
@@ -12217,7 +12298,7 @@
       </c>
       <c r="J293" s="2"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="2" t="s">
         <v>25</v>
       </c>
@@ -12247,7 +12328,7 @@
       </c>
       <c r="J294" s="2"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="2" t="s">
         <v>25</v>
       </c>
@@ -12277,7 +12358,7 @@
       </c>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="2" t="s">
         <v>25</v>
       </c>
@@ -12306,7 +12387,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="2" t="s">
         <v>25</v>
       </c>
@@ -12335,7 +12416,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="2" t="s">
         <v>25</v>
       </c>
@@ -12364,7 +12445,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="2" t="s">
         <v>25</v>
       </c>
@@ -12393,7 +12474,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="2" t="s">
         <v>25</v>
       </c>
@@ -12422,7 +12503,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="2" t="s">
         <v>25</v>
       </c>
@@ -12451,7 +12532,7 @@
         <v>0.3594</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="2" t="s">
         <v>26</v>
       </c>
@@ -12480,7 +12561,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" hidden="1">
       <c r="A303" s="2" t="s">
         <v>26</v>
       </c>
@@ -12509,7 +12590,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="2" t="s">
         <v>26</v>
       </c>
@@ -12538,7 +12619,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1">
       <c r="A305" s="2" t="s">
         <v>26</v>
       </c>
@@ -12567,7 +12648,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306" s="2" t="s">
         <v>26</v>
       </c>
@@ -12596,7 +12677,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307" s="2" t="s">
         <v>26</v>
       </c>
@@ -12625,7 +12706,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" hidden="1">
       <c r="A308" s="2" t="s">
         <v>26</v>
       </c>
@@ -12654,7 +12735,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1">
       <c r="A309" s="2" t="s">
         <v>26</v>
       </c>
@@ -12683,7 +12764,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1">
       <c r="A310" s="2" t="s">
         <v>26</v>
       </c>
@@ -12712,7 +12793,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1">
       <c r="A311" s="2" t="s">
         <v>26</v>
       </c>
@@ -12741,7 +12822,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1">
       <c r="A312" s="2" t="s">
         <v>26</v>
       </c>
@@ -12770,7 +12851,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313" s="2" t="s">
         <v>26</v>
       </c>
@@ -12799,7 +12880,7 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314" s="2" t="s">
         <v>27</v>
       </c>
@@ -12828,7 +12909,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1">
       <c r="A315" s="2" t="s">
         <v>27</v>
       </c>
@@ -12857,7 +12938,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1">
       <c r="A316" s="2" t="s">
         <v>27</v>
       </c>
@@ -12886,7 +12967,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1">
       <c r="A317" s="2" t="s">
         <v>27</v>
       </c>
@@ -12915,7 +12996,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1">
       <c r="A318" s="2" t="s">
         <v>27</v>
       </c>
@@ -12944,7 +13025,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1">
       <c r="A319" s="2" t="s">
         <v>27</v>
       </c>
@@ -12973,7 +13054,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320" s="2" t="s">
         <v>27</v>
       </c>
@@ -13002,7 +13083,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321" s="2" t="s">
         <v>27</v>
       </c>
@@ -13031,7 +13112,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1">
       <c r="A322" s="2" t="s">
         <v>27</v>
       </c>
@@ -13060,7 +13141,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" hidden="1">
       <c r="A323" s="2" t="s">
         <v>27</v>
       </c>
@@ -13089,7 +13170,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1">
       <c r="A324" s="2" t="s">
         <v>27</v>
       </c>
@@ -13118,7 +13199,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325" s="2" t="s">
         <v>27</v>
       </c>
@@ -13147,7 +13228,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" hidden="1">
       <c r="A326" s="2" t="s">
         <v>28</v>
       </c>
@@ -13176,7 +13257,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1">
       <c r="A327" s="2" t="s">
         <v>28</v>
       </c>
@@ -13205,7 +13286,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1">
       <c r="A328" s="2" t="s">
         <v>28</v>
       </c>
@@ -13234,7 +13315,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329" s="2" t="s">
         <v>28</v>
       </c>
@@ -13263,7 +13344,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1">
       <c r="A330" s="2" t="s">
         <v>28</v>
       </c>
@@ -13292,7 +13373,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1">
       <c r="A331" s="2" t="s">
         <v>28</v>
       </c>
@@ -13321,7 +13402,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332" s="2" t="s">
         <v>28</v>
       </c>
@@ -13350,7 +13431,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1">
       <c r="A333" s="2" t="s">
         <v>28</v>
       </c>
@@ -13379,7 +13460,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1">
       <c r="A334" s="2" t="s">
         <v>28</v>
       </c>
@@ -13408,7 +13489,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1">
       <c r="A335" s="2" t="s">
         <v>28</v>
       </c>
@@ -13437,7 +13518,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1">
       <c r="A336" s="2" t="s">
         <v>28</v>
       </c>
@@ -13466,7 +13547,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" hidden="1">
       <c r="A337" s="2" t="s">
         <v>28</v>
       </c>
@@ -13495,7 +13576,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" hidden="1">
       <c r="A338" s="2" t="s">
         <v>29</v>
       </c>
@@ -13524,7 +13605,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" hidden="1">
       <c r="A339" s="2" t="s">
         <v>29</v>
       </c>
@@ -13553,7 +13634,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" hidden="1">
       <c r="A340" s="2" t="s">
         <v>29</v>
       </c>
@@ -13582,7 +13663,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" hidden="1">
       <c r="A341" s="2" t="s">
         <v>29</v>
       </c>
@@ -13611,7 +13692,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" hidden="1">
       <c r="A342" s="2" t="s">
         <v>29</v>
       </c>
@@ -13640,7 +13721,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" hidden="1">
       <c r="A343" s="2" t="s">
         <v>29</v>
       </c>
@@ -13669,7 +13750,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" hidden="1">
       <c r="A344" s="2" t="s">
         <v>29</v>
       </c>
@@ -13698,7 +13779,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" hidden="1">
       <c r="A345" s="2" t="s">
         <v>29</v>
       </c>
@@ -13727,7 +13808,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" hidden="1">
       <c r="A346" s="2" t="s">
         <v>29</v>
       </c>
@@ -13756,7 +13837,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" hidden="1">
       <c r="A347" s="2" t="s">
         <v>29</v>
       </c>
@@ -13785,7 +13866,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" hidden="1">
       <c r="A348" s="2" t="s">
         <v>29</v>
       </c>
@@ -13814,7 +13895,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" hidden="1">
       <c r="A349" s="2" t="s">
         <v>29</v>
       </c>
@@ -13843,7 +13924,7 @@
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" hidden="1">
       <c r="A350" s="2" t="s">
         <v>30</v>
       </c>
@@ -13872,7 +13953,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" hidden="1">
       <c r="A351" s="2" t="s">
         <v>30</v>
       </c>
@@ -13901,7 +13982,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" hidden="1">
       <c r="A352" s="2" t="s">
         <v>30</v>
       </c>
@@ -13930,7 +14011,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" hidden="1">
       <c r="A353" s="2" t="s">
         <v>30</v>
       </c>
@@ -13959,7 +14040,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" hidden="1">
       <c r="A354" s="2" t="s">
         <v>30</v>
       </c>
@@ -13988,7 +14069,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" hidden="1">
       <c r="A355" s="2" t="s">
         <v>30</v>
       </c>
@@ -14017,7 +14098,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" hidden="1">
       <c r="A356" s="2" t="s">
         <v>30</v>
       </c>
@@ -14046,7 +14127,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" hidden="1">
       <c r="A357" s="2" t="s">
         <v>30</v>
       </c>
@@ -14075,7 +14156,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" hidden="1">
       <c r="A358" s="2" t="s">
         <v>30</v>
       </c>
@@ -14104,7 +14185,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" hidden="1">
       <c r="A359" s="2" t="s">
         <v>30</v>
       </c>
@@ -14133,7 +14214,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" hidden="1">
       <c r="A360" s="2" t="s">
         <v>30</v>
       </c>
@@ -14162,7 +14243,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" hidden="1">
       <c r="A361" s="2" t="s">
         <v>30</v>
       </c>
@@ -14191,7 +14272,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" hidden="1">
       <c r="A362" s="2" t="s">
         <v>31</v>
       </c>
@@ -14220,7 +14301,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" hidden="1">
       <c r="A363" s="2" t="s">
         <v>31</v>
       </c>
@@ -14249,7 +14330,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" hidden="1">
       <c r="A364" s="2" t="s">
         <v>31</v>
       </c>
@@ -14278,7 +14359,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" hidden="1">
       <c r="A365" s="2" t="s">
         <v>31</v>
       </c>
@@ -14307,7 +14388,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" hidden="1">
       <c r="A366" s="2" t="s">
         <v>31</v>
       </c>
@@ -14336,7 +14417,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" hidden="1">
       <c r="A367" s="2" t="s">
         <v>31</v>
       </c>
@@ -14365,7 +14446,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" hidden="1">
       <c r="A368" s="2" t="s">
         <v>31</v>
       </c>
@@ -14394,7 +14475,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1">
       <c r="A369" s="2" t="s">
         <v>31</v>
       </c>
@@ -14423,7 +14504,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" hidden="1">
       <c r="A370" s="2" t="s">
         <v>31</v>
       </c>
@@ -14452,7 +14533,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" hidden="1">
       <c r="A371" s="2" t="s">
         <v>31</v>
       </c>
@@ -14481,7 +14562,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" hidden="1">
       <c r="A372" s="2" t="s">
         <v>31</v>
       </c>
@@ -14510,7 +14591,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" hidden="1">
       <c r="A373" s="2" t="s">
         <v>31</v>
       </c>
@@ -14539,7 +14620,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" hidden="1">
       <c r="A374" s="2" t="s">
         <v>32</v>
       </c>
@@ -14568,7 +14649,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" hidden="1">
       <c r="A375" s="2" t="s">
         <v>32</v>
       </c>
@@ -14597,7 +14678,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376" s="2" t="s">
         <v>32</v>
       </c>
@@ -14626,7 +14707,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" hidden="1">
       <c r="A377" s="2" t="s">
         <v>32</v>
       </c>
@@ -14655,7 +14736,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" hidden="1">
       <c r="A378" s="2" t="s">
         <v>32</v>
       </c>
@@ -14684,7 +14765,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" hidden="1">
       <c r="A379" s="2" t="s">
         <v>32</v>
       </c>
@@ -14713,7 +14794,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" hidden="1">
       <c r="A380" s="2" t="s">
         <v>32</v>
       </c>
@@ -14742,7 +14823,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" hidden="1">
       <c r="A381" s="2" t="s">
         <v>32</v>
       </c>
@@ -14771,7 +14852,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" hidden="1">
       <c r="A382" s="2" t="s">
         <v>32</v>
       </c>
@@ -14800,7 +14881,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" hidden="1">
       <c r="A383" s="2" t="s">
         <v>32</v>
       </c>
@@ -14829,7 +14910,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" hidden="1">
       <c r="A384" s="2" t="s">
         <v>32</v>
       </c>
@@ -14858,7 +14939,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" hidden="1">
       <c r="A385" s="2" t="s">
         <v>32</v>
       </c>
@@ -14887,7 +14968,7 @@
         <v>0.23680000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" hidden="1">
       <c r="A386" s="2" t="s">
         <v>33</v>
       </c>
@@ -14916,7 +14997,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" hidden="1">
       <c r="A387" s="2" t="s">
         <v>33</v>
       </c>
@@ -14945,7 +15026,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" hidden="1">
       <c r="A388" s="2" t="s">
         <v>33</v>
       </c>
@@ -14974,7 +15055,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" hidden="1">
       <c r="A389" s="2" t="s">
         <v>33</v>
       </c>
@@ -15003,7 +15084,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" hidden="1">
       <c r="A390" s="2" t="s">
         <v>33</v>
       </c>
@@ -15032,7 +15113,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" hidden="1">
       <c r="A391" s="2" t="s">
         <v>33</v>
       </c>
@@ -15061,7 +15142,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" hidden="1">
       <c r="A392" s="2" t="s">
         <v>33</v>
       </c>
@@ -15090,7 +15171,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" hidden="1">
       <c r="A393" s="2" t="s">
         <v>33</v>
       </c>
@@ -15119,7 +15200,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" hidden="1">
       <c r="A394" s="2" t="s">
         <v>33</v>
       </c>
@@ -15148,7 +15229,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" hidden="1">
       <c r="A395" s="2" t="s">
         <v>33</v>
       </c>
@@ -15177,7 +15258,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" hidden="1">
       <c r="A396" s="2" t="s">
         <v>33</v>
       </c>
@@ -15206,7 +15287,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" hidden="1">
       <c r="A397" s="2" t="s">
         <v>33</v>
       </c>
@@ -15235,7 +15316,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" hidden="1">
       <c r="A398" s="2" t="s">
         <v>34</v>
       </c>
@@ -15264,7 +15345,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" hidden="1">
       <c r="A399" s="2" t="s">
         <v>34</v>
       </c>
@@ -15293,7 +15374,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" hidden="1">
       <c r="A400" s="2" t="s">
         <v>34</v>
       </c>
@@ -15322,7 +15403,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" hidden="1">
       <c r="A401" s="2" t="s">
         <v>34</v>
       </c>
@@ -15351,7 +15432,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" hidden="1">
       <c r="A402" s="2" t="s">
         <v>34</v>
       </c>
@@ -15380,7 +15461,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" hidden="1">
       <c r="A403" s="2" t="s">
         <v>34</v>
       </c>
@@ -15409,7 +15490,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" hidden="1">
       <c r="A404" s="2" t="s">
         <v>34</v>
       </c>
@@ -15438,7 +15519,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" hidden="1">
       <c r="A405" s="2" t="s">
         <v>34</v>
       </c>
@@ -15467,7 +15548,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" hidden="1">
       <c r="A406" s="2" t="s">
         <v>34</v>
       </c>
@@ -15496,7 +15577,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" hidden="1">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -15525,7 +15606,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" hidden="1">
       <c r="A408" s="2" t="s">
         <v>34</v>
       </c>
@@ -15554,7 +15635,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" hidden="1">
       <c r="A409" s="2" t="s">
         <v>34</v>
       </c>
@@ -15583,7 +15664,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" hidden="1">
       <c r="A410" s="2" t="s">
         <v>35</v>
       </c>
@@ -15612,7 +15693,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" hidden="1">
       <c r="A411" s="2" t="s">
         <v>35</v>
       </c>
@@ -15641,7 +15722,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" hidden="1">
       <c r="A412" s="2" t="s">
         <v>35</v>
       </c>
@@ -15670,7 +15751,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" hidden="1">
       <c r="A413" s="2" t="s">
         <v>35</v>
       </c>
@@ -15699,7 +15780,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" hidden="1">
       <c r="A414" s="2" t="s">
         <v>35</v>
       </c>
@@ -15728,7 +15809,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" hidden="1">
       <c r="A415" s="2" t="s">
         <v>35</v>
       </c>
@@ -15757,7 +15838,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" hidden="1">
       <c r="A416" s="2" t="s">
         <v>35</v>
       </c>
@@ -15786,7 +15867,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" hidden="1">
       <c r="A417" s="2" t="s">
         <v>35</v>
       </c>
@@ -15815,7 +15896,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" hidden="1">
       <c r="A418" s="2" t="s">
         <v>35</v>
       </c>
@@ -15844,7 +15925,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" hidden="1">
       <c r="A419" s="2" t="s">
         <v>35</v>
       </c>
@@ -15873,7 +15954,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" hidden="1">
       <c r="A420" s="2" t="s">
         <v>35</v>
       </c>
@@ -15902,7 +15983,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" hidden="1">
       <c r="A421" s="2" t="s">
         <v>35</v>
       </c>
@@ -15931,7 +16012,7 @@
         <v>0.21059999999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" hidden="1">
       <c r="A422" s="2" t="s">
         <v>36</v>
       </c>
@@ -15960,7 +16041,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" hidden="1">
       <c r="A423" s="2" t="s">
         <v>36</v>
       </c>
@@ -15989,7 +16070,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" hidden="1">
       <c r="A424" s="2" t="s">
         <v>36</v>
       </c>
@@ -16018,7 +16099,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" hidden="1">
       <c r="A425" s="2" t="s">
         <v>36</v>
       </c>
@@ -16047,7 +16128,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" hidden="1">
       <c r="A426" s="2" t="s">
         <v>36</v>
       </c>
@@ -16076,7 +16157,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" hidden="1">
       <c r="A427" s="2" t="s">
         <v>36</v>
       </c>
@@ -16105,7 +16186,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" hidden="1">
       <c r="A428" s="2" t="s">
         <v>36</v>
       </c>
@@ -16134,7 +16215,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" hidden="1">
       <c r="A429" s="2" t="s">
         <v>36</v>
       </c>
@@ -16163,7 +16244,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" hidden="1">
       <c r="A430" s="2" t="s">
         <v>36</v>
       </c>
@@ -16192,7 +16273,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" hidden="1">
       <c r="A431" s="2" t="s">
         <v>36</v>
       </c>
@@ -16221,7 +16302,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" hidden="1">
       <c r="A432" s="2" t="s">
         <v>36</v>
       </c>
@@ -16250,7 +16331,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:27" hidden="1">
       <c r="A433" s="2" t="s">
         <v>36</v>
       </c>
@@ -16279,7 +16360,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:27">
       <c r="A434" s="2" t="s">
         <v>37</v>
       </c>
@@ -16301,14 +16382,32 @@
       <c r="G434" t="s">
         <v>57</v>
       </c>
-      <c r="H434">
+      <c r="H434" s="5">
         <v>1199.616</v>
       </c>
       <c r="I434">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="435" spans="1:9">
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="W434">
+        <v>0</v>
+      </c>
+      <c r="X434">
+        <v>1</v>
+      </c>
+      <c r="Y434">
+        <v>0</v>
+      </c>
+      <c r="Z434">
+        <v>0</v>
+      </c>
+      <c r="AA434" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27">
       <c r="A435" s="2" t="s">
         <v>37</v>
       </c>
@@ -16330,14 +16429,29 @@
       <c r="G435" t="s">
         <v>57</v>
       </c>
-      <c r="H435">
+      <c r="H435" s="5">
         <v>862.17600000000004</v>
       </c>
       <c r="I435">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="436" spans="1:9">
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="W435">
+        <v>0</v>
+      </c>
+      <c r="X435">
+        <v>1</v>
+      </c>
+      <c r="AA435">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27">
       <c r="A436" s="2" t="s">
         <v>37</v>
       </c>
@@ -16359,14 +16473,29 @@
       <c r="G436" t="s">
         <v>57</v>
       </c>
-      <c r="H436">
+      <c r="H436" s="5">
         <v>1238.9404039999999</v>
       </c>
       <c r="I436">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="437" spans="1:9">
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="W436">
+        <v>0</v>
+      </c>
+      <c r="X436">
+        <v>1</v>
+      </c>
+      <c r="AA436">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27">
       <c r="A437" s="2" t="s">
         <v>37</v>
       </c>
@@ -16388,14 +16517,29 @@
       <c r="G437" t="s">
         <v>57</v>
       </c>
-      <c r="H437">
+      <c r="H437" s="5">
         <v>996.96816347335357</v>
       </c>
       <c r="I437">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="438" spans="1:9">
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="W437">
+        <v>0</v>
+      </c>
+      <c r="X437">
+        <v>1</v>
+      </c>
+      <c r="AA437">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27">
       <c r="A438" s="2" t="s">
         <v>37</v>
       </c>
@@ -16417,14 +16561,29 @@
       <c r="G438" t="s">
         <v>57</v>
       </c>
-      <c r="H438">
+      <c r="H438" s="5">
         <v>1436.957323536174</v>
       </c>
       <c r="I438">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="439" spans="1:9">
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="W438">
+        <v>0</v>
+      </c>
+      <c r="X438">
+        <v>1</v>
+      </c>
+      <c r="AA438">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27">
       <c r="A439" s="2" t="s">
         <v>37</v>
       </c>
@@ -16446,14 +16605,29 @@
       <c r="G439" t="s">
         <v>57</v>
       </c>
-      <c r="H439">
+      <c r="H439" s="5">
         <v>1182.3689363139883</v>
       </c>
       <c r="I439">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="440" spans="1:9">
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="W439">
+        <v>0</v>
+      </c>
+      <c r="X439">
+        <v>1</v>
+      </c>
+      <c r="AA439">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27">
       <c r="A440" s="2" t="s">
         <v>37</v>
       </c>
@@ -16475,14 +16649,29 @@
       <c r="G440" t="s">
         <v>57</v>
       </c>
-      <c r="H440">
+      <c r="H440" s="5">
         <v>1016.2526876019982</v>
       </c>
       <c r="I440">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="441" spans="1:9">
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="W440">
+        <v>0</v>
+      </c>
+      <c r="X440">
+        <v>1</v>
+      </c>
+      <c r="AA440">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27">
       <c r="A441" s="2" t="s">
         <v>37</v>
       </c>
@@ -16504,14 +16693,29 @@
       <c r="G441" t="s">
         <v>57</v>
       </c>
-      <c r="H441">
+      <c r="H441" s="5">
         <v>1124.0412467060578</v>
       </c>
       <c r="I441">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="442" spans="1:9">
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="W441">
+        <v>0</v>
+      </c>
+      <c r="X441">
+        <v>1</v>
+      </c>
+      <c r="AA441">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="442" spans="1:27">
       <c r="A442" s="2" t="s">
         <v>37</v>
       </c>
@@ -16533,14 +16737,29 @@
       <c r="G442" t="s">
         <v>57</v>
       </c>
-      <c r="H442">
+      <c r="H442" s="5">
         <v>928.44067084386677</v>
       </c>
       <c r="I442">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="443" spans="1:9">
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="W442">
+        <v>0</v>
+      </c>
+      <c r="X442">
+        <v>1</v>
+      </c>
+      <c r="AA442">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27">
       <c r="A443" s="2" t="s">
         <v>37</v>
       </c>
@@ -16562,14 +16781,29 @@
       <c r="G443" t="s">
         <v>57</v>
       </c>
-      <c r="H443">
+      <c r="H443" s="5">
         <v>1104.4297033801327</v>
       </c>
       <c r="I443">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="444" spans="1:9">
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="W443">
+        <v>0</v>
+      </c>
+      <c r="X443">
+        <v>1</v>
+      </c>
+      <c r="AA443">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="444" spans="1:27">
       <c r="A444" s="2" t="s">
         <v>37</v>
       </c>
@@ -16591,14 +16825,29 @@
       <c r="G444" t="s">
         <v>57</v>
       </c>
-      <c r="H444">
+      <c r="H444" s="5">
         <v>984.09351228610274</v>
       </c>
       <c r="I444">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="445" spans="1:9">
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="W444">
+        <v>0</v>
+      </c>
+      <c r="X444">
+        <v>1</v>
+      </c>
+      <c r="AA444">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="445" spans="1:27">
       <c r="A445" s="2" t="s">
         <v>37</v>
       </c>
@@ -16620,14 +16869,29 @@
       <c r="G445" t="s">
         <v>57</v>
       </c>
-      <c r="H445">
+      <c r="H445" s="5">
         <v>1040.8557704780553</v>
       </c>
       <c r="I445">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="446" spans="1:9">
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="W445">
+        <v>0</v>
+      </c>
+      <c r="X445">
+        <v>1</v>
+      </c>
+      <c r="AA445">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="446" spans="1:27">
       <c r="A446" s="2" t="s">
         <v>38</v>
       </c>
@@ -16649,14 +16913,29 @@
       <c r="G446" t="s">
         <v>57</v>
       </c>
-      <c r="H446">
+      <c r="H446" s="5">
         <v>687.93600000000004</v>
       </c>
       <c r="I446">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="447" spans="1:9">
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="W446">
+        <v>0</v>
+      </c>
+      <c r="X446">
+        <v>1</v>
+      </c>
+      <c r="AA446">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="447" spans="1:27">
       <c r="A447" s="2" t="s">
         <v>38</v>
       </c>
@@ -16678,14 +16957,29 @@
       <c r="G447" t="s">
         <v>57</v>
       </c>
-      <c r="H447">
+      <c r="H447" s="5">
         <v>628.51199999999994</v>
       </c>
       <c r="I447">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="448" spans="1:9">
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="W447">
+        <v>0</v>
+      </c>
+      <c r="X447">
+        <v>1</v>
+      </c>
+      <c r="AA447">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="448" spans="1:27">
       <c r="A448" s="2" t="s">
         <v>38</v>
       </c>
@@ -16707,14 +17001,29 @@
       <c r="G448" t="s">
         <v>57</v>
       </c>
-      <c r="H448">
+      <c r="H448" s="5">
         <v>694.18994899999996</v>
       </c>
       <c r="I448">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="449" spans="1:9">
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="W448">
+        <v>0</v>
+      </c>
+      <c r="X448">
+        <v>1</v>
+      </c>
+      <c r="AA448">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27">
       <c r="A449" s="2" t="s">
         <v>38</v>
       </c>
@@ -16736,14 +17045,29 @@
       <c r="G449" t="s">
         <v>57</v>
       </c>
-      <c r="H449">
+      <c r="H449" s="5">
         <v>650.36106240775894</v>
       </c>
       <c r="I449">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="450" spans="1:9">
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="W449">
+        <v>0</v>
+      </c>
+      <c r="X449">
+        <v>1</v>
+      </c>
+      <c r="AA449">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="450" spans="1:27">
       <c r="A450" s="2" t="s">
         <v>38</v>
       </c>
@@ -16765,14 +17089,29 @@
       <c r="G450" t="s">
         <v>57</v>
       </c>
-      <c r="H450">
+      <c r="H450" s="5">
         <v>776.127790041092</v>
       </c>
       <c r="I450">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="451" spans="1:9">
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="W450">
+        <v>0</v>
+      </c>
+      <c r="X450">
+        <v>1</v>
+      </c>
+      <c r="AA450">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27">
       <c r="A451" s="2" t="s">
         <v>38</v>
       </c>
@@ -16794,14 +17133,29 @@
       <c r="G451" t="s">
         <v>57</v>
       </c>
-      <c r="H451">
+      <c r="H451" s="5">
         <v>759.71430991925877</v>
       </c>
       <c r="I451">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="452" spans="1:9">
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="W451">
+        <v>0</v>
+      </c>
+      <c r="X451">
+        <v>1</v>
+      </c>
+      <c r="AA451">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="452" spans="1:27">
       <c r="A452" s="2" t="s">
         <v>38</v>
       </c>
@@ -16823,14 +17177,29 @@
       <c r="G452" t="s">
         <v>57</v>
       </c>
-      <c r="H452">
+      <c r="H452" s="5">
         <v>595.47051606404125</v>
       </c>
       <c r="I452">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="453" spans="1:9">
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="W452">
+        <v>0</v>
+      </c>
+      <c r="X452">
+        <v>1</v>
+      </c>
+      <c r="AA452">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="453" spans="1:27">
       <c r="A453" s="2" t="s">
         <v>38</v>
       </c>
@@ -16852,14 +17221,29 @@
       <c r="G453" t="s">
         <v>57</v>
       </c>
-      <c r="H453">
+      <c r="H453" s="5">
         <v>674.67436558142458</v>
       </c>
       <c r="I453">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="454" spans="1:9">
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="W453">
+        <v>0</v>
+      </c>
+      <c r="X453">
+        <v>1</v>
+      </c>
+      <c r="AA453">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27">
       <c r="A454" s="2" t="s">
         <v>38</v>
       </c>
@@ -16881,14 +17265,29 @@
       <c r="G454" t="s">
         <v>57</v>
       </c>
-      <c r="H454">
+      <c r="H454" s="5">
         <v>608.75764862173764</v>
       </c>
       <c r="I454">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="455" spans="1:9">
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="W454">
+        <v>0</v>
+      </c>
+      <c r="X454">
+        <v>1</v>
+      </c>
+      <c r="AA454">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="455" spans="1:27">
       <c r="A455" s="2" t="s">
         <v>38</v>
       </c>
@@ -16910,14 +17309,29 @@
       <c r="G455" t="s">
         <v>57</v>
       </c>
-      <c r="H455">
+      <c r="H455" s="5">
         <v>552.91167753067043</v>
       </c>
       <c r="I455">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="456" spans="1:9">
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+      <c r="W455">
+        <v>0</v>
+      </c>
+      <c r="X455">
+        <v>1</v>
+      </c>
+      <c r="AA455">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="456" spans="1:27">
       <c r="A456" s="2" t="s">
         <v>38</v>
       </c>
@@ -16939,14 +17353,29 @@
       <c r="G456" t="s">
         <v>57</v>
       </c>
-      <c r="H456">
+      <c r="H456" s="5">
         <v>467.86152044160957</v>
       </c>
       <c r="I456">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="457" spans="1:9">
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="W456">
+        <v>0</v>
+      </c>
+      <c r="X456">
+        <v>1</v>
+      </c>
+      <c r="AA456">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27">
       <c r="A457" s="2" t="s">
         <v>38</v>
       </c>
@@ -16968,14 +17397,29 @@
       <c r="G457" t="s">
         <v>57</v>
       </c>
-      <c r="H457">
+      <c r="H457" s="5">
         <v>487.48808181027277</v>
       </c>
       <c r="I457">
         <v>0.21080000000000002</v>
       </c>
-    </row>
-    <row r="458" spans="1:9">
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="W457">
+        <v>0</v>
+      </c>
+      <c r="X457">
+        <v>1</v>
+      </c>
+      <c r="AA457">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27">
       <c r="A458" s="2" t="s">
         <v>39</v>
       </c>
@@ -16997,14 +17441,29 @@
       <c r="G458" t="s">
         <v>57</v>
       </c>
-      <c r="H458">
+      <c r="H458" s="5">
         <v>603</v>
       </c>
       <c r="I458">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="459" spans="1:9">
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="W458">
+        <v>0</v>
+      </c>
+      <c r="X458">
+        <v>1</v>
+      </c>
+      <c r="AA458">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="459" spans="1:27">
       <c r="A459" s="2" t="s">
         <v>39</v>
       </c>
@@ -17026,14 +17485,29 @@
       <c r="G459" t="s">
         <v>57</v>
       </c>
-      <c r="H459">
+      <c r="H459" s="5">
         <v>539.76</v>
       </c>
       <c r="I459">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="460" spans="1:9">
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="W459">
+        <v>0</v>
+      </c>
+      <c r="X459">
+        <v>1</v>
+      </c>
+      <c r="AA459">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="460" spans="1:27">
       <c r="A460" s="2" t="s">
         <v>39</v>
       </c>
@@ -17055,14 +17529,29 @@
       <c r="G460" t="s">
         <v>57</v>
       </c>
-      <c r="H460">
+      <c r="H460" s="5">
         <v>628.54672600000004</v>
       </c>
       <c r="I460">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="461" spans="1:9">
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="W460">
+        <v>0</v>
+      </c>
+      <c r="X460">
+        <v>1</v>
+      </c>
+      <c r="AA460">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="461" spans="1:27">
       <c r="A461" s="2" t="s">
         <v>39</v>
       </c>
@@ -17084,14 +17573,29 @@
       <c r="G461" t="s">
         <v>57</v>
       </c>
-      <c r="H461">
+      <c r="H461" s="5">
         <v>545.06282527609744</v>
       </c>
       <c r="I461">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="462" spans="1:9">
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461">
+        <v>1</v>
+      </c>
+      <c r="AA461">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="462" spans="1:27">
       <c r="A462" s="2" t="s">
         <v>39</v>
       </c>
@@ -17113,14 +17617,29 @@
       <c r="G462" t="s">
         <v>57</v>
       </c>
-      <c r="H462">
+      <c r="H462" s="5">
         <v>672.75609342513553</v>
       </c>
       <c r="I462">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="463" spans="1:9">
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="W462">
+        <v>0</v>
+      </c>
+      <c r="X462">
+        <v>1</v>
+      </c>
+      <c r="AA462">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27">
       <c r="A463" s="2" t="s">
         <v>39</v>
       </c>
@@ -17142,14 +17661,29 @@
       <c r="G463" t="s">
         <v>57</v>
       </c>
-      <c r="H463">
+      <c r="H463" s="5">
         <v>686.43690124775583</v>
       </c>
       <c r="I463">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="464" spans="1:9">
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463">
+        <v>1</v>
+      </c>
+      <c r="AA463">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="464" spans="1:27">
       <c r="A464" s="2" t="s">
         <v>39</v>
       </c>
@@ -17171,14 +17705,29 @@
       <c r="G464" t="s">
         <v>57</v>
       </c>
-      <c r="H464">
+      <c r="H464" s="5">
         <v>474.48639246454081</v>
       </c>
       <c r="I464">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="465" spans="1:9">
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="W464">
+        <v>0</v>
+      </c>
+      <c r="X464">
+        <v>1</v>
+      </c>
+      <c r="AA464">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27">
       <c r="A465" s="2" t="s">
         <v>39</v>
       </c>
@@ -17200,14 +17749,29 @@
       <c r="G465" t="s">
         <v>57</v>
       </c>
-      <c r="H465">
+      <c r="H465" s="5">
         <v>567.95224175793919</v>
       </c>
       <c r="I465">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="466" spans="1:9">
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="W465">
+        <v>0</v>
+      </c>
+      <c r="X465">
+        <v>1</v>
+      </c>
+      <c r="AA465">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27">
       <c r="A466" s="2" t="s">
         <v>39</v>
       </c>
@@ -17229,14 +17793,29 @@
       <c r="G466" t="s">
         <v>57</v>
       </c>
-      <c r="H466">
+      <c r="H466" s="5">
         <v>599.55695333270432</v>
       </c>
       <c r="I466">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="467" spans="1:9">
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="W466">
+        <v>0</v>
+      </c>
+      <c r="X466">
+        <v>1</v>
+      </c>
+      <c r="AA466">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27">
       <c r="A467" s="2" t="s">
         <v>39</v>
       </c>
@@ -17258,14 +17837,29 @@
       <c r="G467" t="s">
         <v>57</v>
       </c>
-      <c r="H467">
+      <c r="H467" s="5">
         <v>555.62488759957751</v>
       </c>
       <c r="I467">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="468" spans="1:9">
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="W467">
+        <v>0</v>
+      </c>
+      <c r="X467">
+        <v>1</v>
+      </c>
+      <c r="AA467">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27">
       <c r="A468" s="2" t="s">
         <v>39</v>
       </c>
@@ -17287,14 +17881,29 @@
       <c r="G468" t="s">
         <v>57</v>
       </c>
-      <c r="H468">
+      <c r="H468" s="5">
         <v>469.33987019001017</v>
       </c>
       <c r="I468">
         <v>0.16869999999999999</v>
       </c>
-    </row>
-    <row r="469" spans="1:9">
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="W468">
+        <v>0</v>
+      </c>
+      <c r="X468">
+        <v>1</v>
+      </c>
+      <c r="AA468">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27">
       <c r="A469" s="2" t="s">
         <v>39</v>
       </c>
@@ -17316,14 +17925,36 @@
       <c r="G469" t="s">
         <v>57</v>
       </c>
-      <c r="H469">
+      <c r="H469" s="5">
         <v>493.50404943403191</v>
       </c>
       <c r="I469">
         <v>0.16869999999999999</v>
       </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="W469">
+        <v>0</v>
+      </c>
+      <c r="X469">
+        <v>1</v>
+      </c>
+      <c r="AA469">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB469">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Classic Plus"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\CMPC-manufacturing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC552BB-66AF-4E0E-A37C-DB15C27A0080}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="sheet 4" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'sheet 4'!$A$1:$AB$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'sheet 4'!$A$1:$Z$469</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="71">
   <si>
     <t>SKU_Modelo</t>
   </si>
@@ -226,15 +232,6 @@
     <t>proPrice</t>
   </si>
   <si>
-    <t>tipoLinea1</t>
-  </si>
-  <si>
-    <t>tipoLinea2</t>
-  </si>
-  <si>
-    <t>tipoLinea3</t>
-  </si>
-  <si>
     <t>rateLinea1</t>
   </si>
   <si>
@@ -243,14 +240,17 @@
   <si>
     <t>rateLinea3</t>
   </si>
+  <si>
+    <t>lineType</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="mmm"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="mmm"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -640,18 +640,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="284" applyFont="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="284" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="284" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="284" applyFont="1"/>
   </cellXfs>
   <cellStyles count="285">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -942,6 +942,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1266,14 +1274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection sqref="A1:S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="13" width="0" hidden="1" customWidth="1"/>
@@ -1281,7 +1289,7 @@
     <col min="19" max="19" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1930,7 +1938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1989,7 +1997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2225,7 +2233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2284,7 +2292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2343,7 +2351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2461,7 +2469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2756,7 +2764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2992,7 +3000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3169,7 +3177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3228,7 +3236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3523,7 +3531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3653,29 +3661,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AB469"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J469" sqref="J2:J469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="16" style="5" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="25" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -3704,25 +3710,19 @@
         <v>66</v>
       </c>
       <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" hidden="1">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3750,9 @@
       <c r="I2">
         <v>0.4163</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -3767,10 +3769,8 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" hidden="1">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3798,9 +3798,11 @@
       <c r="I3">
         <v>0.4163</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" hidden="1">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3828,9 +3830,11 @@
       <c r="I4">
         <v>0.4163</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" hidden="1">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3858,9 +3862,11 @@
       <c r="I5">
         <v>0.4163</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" hidden="1">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3888,9 +3894,11 @@
       <c r="I6">
         <v>0.4163</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" hidden="1">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3918,9 +3926,11 @@
       <c r="I7">
         <v>0.4163</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" hidden="1">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3948,9 +3958,11 @@
       <c r="I8">
         <v>0.4163</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" hidden="1">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -3978,9 +3990,11 @@
       <c r="I9">
         <v>0.4163</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" hidden="1">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -4008,9 +4022,11 @@
       <c r="I10">
         <v>0.4163</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" hidden="1">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -4038,9 +4054,11 @@
       <c r="I11">
         <v>0.4163</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" hidden="1">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -4068,9 +4086,11 @@
       <c r="I12">
         <v>0.4163</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" hidden="1">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -4098,7 +4118,9 @@
       <c r="I13">
         <v>0.4163</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
       <c r="K13">
         <v>85.12</v>
       </c>
@@ -4136,7 +4158,7 @@
         <v>236.32090194917032</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4164,9 +4186,11 @@
       <c r="I14">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:28" hidden="1">
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -4194,9 +4218,11 @@
       <c r="I15">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" hidden="1">
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -4224,9 +4250,11 @@
       <c r="I16">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -4254,9 +4282,11 @@
       <c r="I17">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4284,9 +4314,11 @@
       <c r="I18">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -4314,9 +4346,11 @@
       <c r="I19">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -4344,9 +4378,11 @@
       <c r="I20">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -4374,9 +4410,11 @@
       <c r="I21">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4404,9 +4442,11 @@
       <c r="I22">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4434,9 +4474,11 @@
       <c r="I23">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -4464,9 +4506,11 @@
       <c r="I24">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4494,9 +4538,11 @@
       <c r="I25">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4524,9 +4570,11 @@
       <c r="I26">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" hidden="1">
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4554,9 +4602,11 @@
       <c r="I27">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -4584,9 +4634,11 @@
       <c r="I28">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" hidden="1">
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4614,9 +4666,11 @@
       <c r="I29">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1">
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -4644,9 +4698,11 @@
       <c r="I30">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" hidden="1">
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4674,9 +4730,11 @@
       <c r="I31">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1">
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -4704,9 +4762,11 @@
       <c r="I32">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4734,9 +4794,11 @@
       <c r="I33">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1">
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -4764,9 +4826,11 @@
       <c r="I34">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1">
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -4794,9 +4858,11 @@
       <c r="I35">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1">
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -4824,9 +4890,11 @@
       <c r="I36">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1">
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -4854,9 +4922,11 @@
       <c r="I37">
         <v>0.37610000000000005</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1">
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -4884,9 +4954,11 @@
       <c r="I38">
         <v>0.31</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1">
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -4914,9 +4986,11 @@
       <c r="I39">
         <v>0.31</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1">
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -4944,9 +5018,11 @@
       <c r="I40">
         <v>0.31</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1">
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -4974,9 +5050,11 @@
       <c r="I41">
         <v>0.31</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5004,8 +5082,11 @@
       <c r="I42">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1">
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -5033,8 +5114,11 @@
       <c r="I43">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1">
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -5062,8 +5146,11 @@
       <c r="I44">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1">
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -5091,8 +5178,11 @@
       <c r="I45">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1">
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -5120,8 +5210,11 @@
       <c r="I46">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1">
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5149,8 +5242,11 @@
       <c r="I47">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1">
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -5178,8 +5274,11 @@
       <c r="I48">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1">
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -5207,8 +5306,11 @@
       <c r="I49">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1">
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -5236,8 +5338,11 @@
       <c r="I50">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1">
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -5265,8 +5370,11 @@
       <c r="I51">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1">
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -5294,8 +5402,11 @@
       <c r="I52">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1">
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -5323,8 +5434,11 @@
       <c r="I53">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1">
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -5352,8 +5466,11 @@
       <c r="I54">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1">
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -5381,8 +5498,11 @@
       <c r="I55">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1">
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -5410,8 +5530,11 @@
       <c r="I56">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1">
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -5439,8 +5562,11 @@
       <c r="I57">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1">
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -5468,8 +5594,11 @@
       <c r="I58">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1">
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -5497,8 +5626,11 @@
       <c r="I59">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1">
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -5526,8 +5658,11 @@
       <c r="I60">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1">
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -5555,8 +5690,11 @@
       <c r="I61">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1">
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -5584,8 +5722,11 @@
       <c r="I62">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1">
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -5613,8 +5754,11 @@
       <c r="I63">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1">
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -5642,8 +5786,11 @@
       <c r="I64">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1">
+      <c r="J64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -5671,8 +5818,11 @@
       <c r="I65">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1">
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -5700,8 +5850,11 @@
       <c r="I66">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1">
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -5729,8 +5882,11 @@
       <c r="I67">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1">
+      <c r="J67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -5758,8 +5914,11 @@
       <c r="I68">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -5787,8 +5946,11 @@
       <c r="I69">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1">
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -5816,8 +5978,11 @@
       <c r="I70">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1">
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -5845,8 +6010,11 @@
       <c r="I71">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1">
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -5874,8 +6042,11 @@
       <c r="I72">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1">
+      <c r="J72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -5903,8 +6074,11 @@
       <c r="I73">
         <v>0.4163</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1">
+      <c r="J73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -5932,8 +6106,11 @@
       <c r="I74">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1">
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -5961,8 +6138,11 @@
       <c r="I75">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -5990,8 +6170,11 @@
       <c r="I76">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1">
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -6019,8 +6202,11 @@
       <c r="I77">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1">
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -6048,8 +6234,11 @@
       <c r="I78">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -6077,8 +6266,11 @@
       <c r="I79">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1">
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -6106,8 +6298,11 @@
       <c r="I80">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1">
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -6135,8 +6330,11 @@
       <c r="I81">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1">
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -6164,8 +6362,11 @@
       <c r="I82">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1">
+      <c r="J82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -6193,8 +6394,11 @@
       <c r="I83">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1">
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -6222,8 +6426,11 @@
       <c r="I84">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1">
+      <c r="J84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -6251,8 +6458,11 @@
       <c r="I85">
         <v>0.41770000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1">
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -6280,8 +6490,11 @@
       <c r="I86">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1">
+      <c r="J86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -6309,8 +6522,11 @@
       <c r="I87">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1">
+      <c r="J87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -6338,8 +6554,11 @@
       <c r="I88">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1">
+      <c r="J88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -6367,8 +6586,11 @@
       <c r="I89">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1">
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
@@ -6396,8 +6618,11 @@
       <c r="I90">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1">
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
@@ -6425,8 +6650,11 @@
       <c r="I91">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1">
+      <c r="J91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -6454,8 +6682,11 @@
       <c r="I92">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1">
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -6483,8 +6714,11 @@
       <c r="I93">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1">
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -6512,8 +6746,11 @@
       <c r="I94">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1">
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
@@ -6541,8 +6778,11 @@
       <c r="I95">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1">
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -6570,8 +6810,11 @@
       <c r="I96">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1">
+      <c r="J96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
@@ -6599,8 +6842,11 @@
       <c r="I97">
         <v>0.37610000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1">
+      <c r="J97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -6628,8 +6874,11 @@
       <c r="I98">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1">
+      <c r="J98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -6657,8 +6906,11 @@
       <c r="I99">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1">
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -6686,8 +6938,11 @@
       <c r="I100">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1">
+      <c r="J100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -6715,8 +6970,11 @@
       <c r="I101">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1">
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -6744,8 +7002,11 @@
       <c r="I102">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1">
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -6773,8 +7034,11 @@
       <c r="I103">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1">
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -6802,8 +7066,11 @@
       <c r="I104">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1">
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -6831,8 +7098,11 @@
       <c r="I105">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1">
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -6860,8 +7130,11 @@
       <c r="I106">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1">
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -6889,8 +7162,11 @@
       <c r="I107">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1">
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -6918,8 +7194,11 @@
       <c r="I108">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1">
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -6947,8 +7226,11 @@
       <c r="I109">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1">
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
@@ -6976,8 +7258,11 @@
       <c r="I110">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1">
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -7005,8 +7290,11 @@
       <c r="I111">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1">
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -7034,8 +7322,11 @@
       <c r="I112">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1">
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>10</v>
       </c>
@@ -7063,8 +7354,11 @@
       <c r="I113">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1">
+      <c r="J113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>10</v>
       </c>
@@ -7092,8 +7386,11 @@
       <c r="I114">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1">
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -7121,8 +7418,11 @@
       <c r="I115">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1">
+      <c r="J115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -7150,8 +7450,11 @@
       <c r="I116">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1">
+      <c r="J116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>10</v>
       </c>
@@ -7179,8 +7482,11 @@
       <c r="I117">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1">
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -7208,8 +7514,11 @@
       <c r="I118">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1">
+      <c r="J118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -7237,8 +7546,11 @@
       <c r="I119">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1">
+      <c r="J119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -7266,8 +7578,11 @@
       <c r="I120">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1">
+      <c r="J120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -7295,8 +7610,11 @@
       <c r="I121">
         <v>0.31080000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1">
+      <c r="J121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -7324,8 +7642,11 @@
       <c r="I122">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1">
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
@@ -7353,8 +7674,11 @@
       <c r="I123">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1">
+      <c r="J123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
@@ -7382,8 +7706,11 @@
       <c r="I124">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1">
+      <c r="J124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -7411,8 +7738,11 @@
       <c r="I125">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1">
+      <c r="J125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
@@ -7440,8 +7770,11 @@
       <c r="I126">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
+      <c r="J126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -7469,8 +7802,11 @@
       <c r="I127">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1">
+      <c r="J127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
@@ -7498,8 +7834,11 @@
       <c r="I128">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1">
+      <c r="J128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
@@ -7527,8 +7866,11 @@
       <c r="I129">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1">
+      <c r="J129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
@@ -7556,8 +7898,11 @@
       <c r="I130">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1">
+      <c r="J130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
@@ -7585,8 +7930,11 @@
       <c r="I131">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1">
+      <c r="J131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>11</v>
       </c>
@@ -7614,8 +7962,11 @@
       <c r="I132">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1">
+      <c r="J132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
@@ -7643,8 +7994,11 @@
       <c r="I133">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1">
+      <c r="J133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
@@ -7672,8 +8026,11 @@
       <c r="I134">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1">
+      <c r="J134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -7701,8 +8058,11 @@
       <c r="I135">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1">
+      <c r="J135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
@@ -7730,8 +8090,11 @@
       <c r="I136">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1">
+      <c r="J136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -7759,8 +8122,11 @@
       <c r="I137">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1">
+      <c r="J137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -7788,8 +8154,11 @@
       <c r="I138">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1">
+      <c r="J138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -7817,8 +8186,11 @@
       <c r="I139">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1">
+      <c r="J139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -7846,8 +8218,11 @@
       <c r="I140">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1">
+      <c r="J140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -7875,8 +8250,11 @@
       <c r="I141">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1">
+      <c r="J141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
@@ -7904,8 +8282,11 @@
       <c r="I142">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1">
+      <c r="J142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -7933,8 +8314,11 @@
       <c r="I143">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" hidden="1">
+      <c r="J143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
@@ -7962,8 +8346,11 @@
       <c r="I144">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1">
+      <c r="J144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -7991,8 +8378,11 @@
       <c r="I145">
         <v>0.32480000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1">
+      <c r="J145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>13</v>
       </c>
@@ -8020,8 +8410,11 @@
       <c r="I146">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1">
+      <c r="J146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>13</v>
       </c>
@@ -8049,8 +8442,11 @@
       <c r="I147">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1">
+      <c r="J147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>13</v>
       </c>
@@ -8078,8 +8474,11 @@
       <c r="I148">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1">
+      <c r="J148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
@@ -8107,8 +8506,11 @@
       <c r="I149">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1">
+      <c r="J149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>13</v>
       </c>
@@ -8136,8 +8538,11 @@
       <c r="I150">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1">
+      <c r="J150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>13</v>
       </c>
@@ -8165,8 +8570,11 @@
       <c r="I151">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1">
+      <c r="J151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>13</v>
       </c>
@@ -8194,8 +8602,11 @@
       <c r="I152">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1">
+      <c r="J152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>13</v>
       </c>
@@ -8223,8 +8634,11 @@
       <c r="I153">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1">
+      <c r="J153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
@@ -8252,8 +8666,11 @@
       <c r="I154">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1">
+      <c r="J154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>13</v>
       </c>
@@ -8281,8 +8698,11 @@
       <c r="I155">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1">
+      <c r="J155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>13</v>
       </c>
@@ -8310,8 +8730,11 @@
       <c r="I156">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1">
+      <c r="J156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>13</v>
       </c>
@@ -8339,8 +8762,11 @@
       <c r="I157">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1">
+      <c r="J157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>14</v>
       </c>
@@ -8368,8 +8794,11 @@
       <c r="I158">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1">
+      <c r="J158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>14</v>
       </c>
@@ -8397,8 +8826,11 @@
       <c r="I159">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1">
+      <c r="J159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>14</v>
       </c>
@@ -8426,8 +8858,11 @@
       <c r="I160">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1">
+      <c r="J160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>14</v>
       </c>
@@ -8455,8 +8890,11 @@
       <c r="I161">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1">
+      <c r="J161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -8484,8 +8922,11 @@
       <c r="I162">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1">
+      <c r="J162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>14</v>
       </c>
@@ -8513,8 +8954,11 @@
       <c r="I163">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1">
+      <c r="J163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>14</v>
       </c>
@@ -8542,8 +8986,11 @@
       <c r="I164">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1">
+      <c r="J164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>14</v>
       </c>
@@ -8571,8 +9018,11 @@
       <c r="I165">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1">
+      <c r="J165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>14</v>
       </c>
@@ -8600,8 +9050,11 @@
       <c r="I166">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1">
+      <c r="J166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>14</v>
       </c>
@@ -8629,8 +9082,11 @@
       <c r="I167">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1">
+      <c r="J167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>14</v>
       </c>
@@ -8658,8 +9114,11 @@
       <c r="I168">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1">
+      <c r="J168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>14</v>
       </c>
@@ -8687,8 +9146,11 @@
       <c r="I169">
         <v>0.2359</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1">
+      <c r="J169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>15</v>
       </c>
@@ -8716,8 +9178,11 @@
       <c r="I170">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1">
+      <c r="J170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>15</v>
       </c>
@@ -8745,8 +9210,11 @@
       <c r="I171">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1">
+      <c r="J171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -8774,8 +9242,11 @@
       <c r="I172">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1">
+      <c r="J172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>15</v>
       </c>
@@ -8803,8 +9274,11 @@
       <c r="I173">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1">
+      <c r="J173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>15</v>
       </c>
@@ -8832,8 +9306,11 @@
       <c r="I174">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1">
+      <c r="J174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>15</v>
       </c>
@@ -8861,8 +9338,11 @@
       <c r="I175">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1">
+      <c r="J175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>15</v>
       </c>
@@ -8890,8 +9370,11 @@
       <c r="I176">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1">
+      <c r="J176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>15</v>
       </c>
@@ -8919,8 +9402,11 @@
       <c r="I177">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1">
+      <c r="J177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>15</v>
       </c>
@@ -8948,8 +9434,11 @@
       <c r="I178">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1">
+      <c r="J178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>15</v>
       </c>
@@ -8977,8 +9466,11 @@
       <c r="I179">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1">
+      <c r="J179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>15</v>
       </c>
@@ -9006,8 +9498,11 @@
       <c r="I180">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1">
+      <c r="J180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>15</v>
       </c>
@@ -9035,8 +9530,11 @@
       <c r="I181">
         <v>0.24869999999999998</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1">
+      <c r="J181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -9064,8 +9562,11 @@
       <c r="I182">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1">
+      <c r="J182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -9093,8 +9594,11 @@
       <c r="I183">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1">
+      <c r="J183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -9122,8 +9626,11 @@
       <c r="I184">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1">
+      <c r="J184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -9151,8 +9658,11 @@
       <c r="I185">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1">
+      <c r="J185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -9180,8 +9690,11 @@
       <c r="I186">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1">
+      <c r="J186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -9209,8 +9722,11 @@
       <c r="I187">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1">
+      <c r="J187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -9238,8 +9754,11 @@
       <c r="I188">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1">
+      <c r="J188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -9267,8 +9786,11 @@
       <c r="I189">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1">
+      <c r="J189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -9296,8 +9818,11 @@
       <c r="I190">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1">
+      <c r="J190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -9325,8 +9850,11 @@
       <c r="I191">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1">
+      <c r="J191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -9354,8 +9882,11 @@
       <c r="I192">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1">
+      <c r="J192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -9383,8 +9914,11 @@
       <c r="I193">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1">
+      <c r="J193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
@@ -9412,8 +9946,11 @@
       <c r="I194">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" hidden="1">
+      <c r="J194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -9441,8 +9978,11 @@
       <c r="I195">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1">
+      <c r="J195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -9470,8 +10010,11 @@
       <c r="I196">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1">
+      <c r="J196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -9499,8 +10042,11 @@
       <c r="I197">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1">
+      <c r="J197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>17</v>
       </c>
@@ -9528,8 +10074,11 @@
       <c r="I198">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1">
+      <c r="J198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>17</v>
       </c>
@@ -9557,8 +10106,11 @@
       <c r="I199">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1">
+      <c r="J199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>17</v>
       </c>
@@ -9586,8 +10138,11 @@
       <c r="I200">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1">
+      <c r="J200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>17</v>
       </c>
@@ -9615,8 +10170,11 @@
       <c r="I201">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1">
+      <c r="J201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>17</v>
       </c>
@@ -9644,8 +10202,11 @@
       <c r="I202">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" hidden="1">
+      <c r="J202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>17</v>
       </c>
@@ -9673,8 +10234,11 @@
       <c r="I203">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1">
+      <c r="J203" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>17</v>
       </c>
@@ -9702,8 +10266,11 @@
       <c r="I204">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1">
+      <c r="J204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -9731,8 +10298,11 @@
       <c r="I205">
         <v>0.29239999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1">
+      <c r="J205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>18</v>
       </c>
@@ -9760,8 +10330,11 @@
       <c r="I206">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1">
+      <c r="J206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>18</v>
       </c>
@@ -9789,8 +10362,11 @@
       <c r="I207">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1">
+      <c r="J207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -9818,8 +10394,11 @@
       <c r="I208">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1">
+      <c r="J208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>18</v>
       </c>
@@ -9847,8 +10426,11 @@
       <c r="I209">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1">
+      <c r="J209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -9876,8 +10458,11 @@
       <c r="I210">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1">
+      <c r="J210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>18</v>
       </c>
@@ -9905,8 +10490,11 @@
       <c r="I211">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" hidden="1">
+      <c r="J211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>18</v>
       </c>
@@ -9934,8 +10522,11 @@
       <c r="I212">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" hidden="1">
+      <c r="J212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>18</v>
       </c>
@@ -9963,8 +10554,11 @@
       <c r="I213">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" hidden="1">
+      <c r="J213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>18</v>
       </c>
@@ -9992,8 +10586,11 @@
       <c r="I214">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" hidden="1">
+      <c r="J214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>18</v>
       </c>
@@ -10021,8 +10618,11 @@
       <c r="I215">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" hidden="1">
+      <c r="J215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -10050,8 +10650,11 @@
       <c r="I216">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" hidden="1">
+      <c r="J216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>18</v>
       </c>
@@ -10079,8 +10682,11 @@
       <c r="I217">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1">
+      <c r="J217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>19</v>
       </c>
@@ -10108,8 +10714,11 @@
       <c r="I218">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1">
+      <c r="J218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>19</v>
       </c>
@@ -10137,8 +10746,11 @@
       <c r="I219">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" hidden="1">
+      <c r="J219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>19</v>
       </c>
@@ -10166,8 +10778,11 @@
       <c r="I220">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1">
+      <c r="J220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>19</v>
       </c>
@@ -10195,8 +10810,11 @@
       <c r="I221">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" hidden="1">
+      <c r="J221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>19</v>
       </c>
@@ -10224,8 +10842,11 @@
       <c r="I222">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" hidden="1">
+      <c r="J222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>19</v>
       </c>
@@ -10253,8 +10874,11 @@
       <c r="I223">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1">
+      <c r="J223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>19</v>
       </c>
@@ -10282,8 +10906,11 @@
       <c r="I224">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" hidden="1">
+      <c r="J224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>19</v>
       </c>
@@ -10311,8 +10938,11 @@
       <c r="I225">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" hidden="1">
+      <c r="J225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>19</v>
       </c>
@@ -10340,8 +10970,11 @@
       <c r="I226">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1">
+      <c r="J226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>19</v>
       </c>
@@ -10369,8 +11002,11 @@
       <c r="I227">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" hidden="1">
+      <c r="J227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>19</v>
       </c>
@@ -10398,8 +11034,11 @@
       <c r="I228">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" hidden="1">
+      <c r="J228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>19</v>
       </c>
@@ -10427,8 +11066,11 @@
       <c r="I229">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" hidden="1">
+      <c r="J229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>20</v>
       </c>
@@ -10456,8 +11098,11 @@
       <c r="I230">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" hidden="1">
+      <c r="J230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>20</v>
       </c>
@@ -10485,8 +11130,11 @@
       <c r="I231">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" hidden="1">
+      <c r="J231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>20</v>
       </c>
@@ -10514,8 +11162,11 @@
       <c r="I232">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1">
+      <c r="J232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>20</v>
       </c>
@@ -10543,8 +11194,11 @@
       <c r="I233">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" hidden="1">
+      <c r="J233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>20</v>
       </c>
@@ -10572,8 +11226,11 @@
       <c r="I234">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" hidden="1">
+      <c r="J234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>20</v>
       </c>
@@ -10601,8 +11258,11 @@
       <c r="I235">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" hidden="1">
+      <c r="J235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>20</v>
       </c>
@@ -10630,8 +11290,11 @@
       <c r="I236">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" hidden="1">
+      <c r="J236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>20</v>
       </c>
@@ -10659,8 +11322,11 @@
       <c r="I237">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" hidden="1">
+      <c r="J237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>20</v>
       </c>
@@ -10688,8 +11354,11 @@
       <c r="I238">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" hidden="1">
+      <c r="J238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>20</v>
       </c>
@@ -10717,8 +11386,11 @@
       <c r="I239">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" hidden="1">
+      <c r="J239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>20</v>
       </c>
@@ -10746,8 +11418,11 @@
       <c r="I240">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" hidden="1">
+      <c r="J240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>20</v>
       </c>
@@ -10775,8 +11450,11 @@
       <c r="I241">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" hidden="1">
+      <c r="J241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>21</v>
       </c>
@@ -10804,8 +11482,11 @@
       <c r="I242">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" hidden="1">
+      <c r="J242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>21</v>
       </c>
@@ -10833,8 +11514,11 @@
       <c r="I243">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" hidden="1">
+      <c r="J243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>21</v>
       </c>
@@ -10862,8 +11546,11 @@
       <c r="I244">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" hidden="1">
+      <c r="J244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>21</v>
       </c>
@@ -10891,8 +11578,11 @@
       <c r="I245">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" hidden="1">
+      <c r="J245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>21</v>
       </c>
@@ -10920,8 +11610,11 @@
       <c r="I246">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" hidden="1">
+      <c r="J246" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>21</v>
       </c>
@@ -10949,8 +11642,11 @@
       <c r="I247">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" hidden="1">
+      <c r="J247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>21</v>
       </c>
@@ -10978,8 +11674,11 @@
       <c r="I248">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" hidden="1">
+      <c r="J248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>21</v>
       </c>
@@ -11007,8 +11706,11 @@
       <c r="I249">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" hidden="1">
+      <c r="J249" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>21</v>
       </c>
@@ -11036,8 +11738,11 @@
       <c r="I250">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" hidden="1">
+      <c r="J250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>21</v>
       </c>
@@ -11065,8 +11770,11 @@
       <c r="I251">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" hidden="1">
+      <c r="J251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>21</v>
       </c>
@@ -11094,8 +11802,11 @@
       <c r="I252">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" hidden="1">
+      <c r="J252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>21</v>
       </c>
@@ -11123,8 +11834,11 @@
       <c r="I253">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" hidden="1">
+      <c r="J253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>22</v>
       </c>
@@ -11152,8 +11866,11 @@
       <c r="I254">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" hidden="1">
+      <c r="J254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>22</v>
       </c>
@@ -11181,8 +11898,11 @@
       <c r="I255">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" hidden="1">
+      <c r="J255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>22</v>
       </c>
@@ -11210,8 +11930,11 @@
       <c r="I256">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" hidden="1">
+      <c r="J256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>22</v>
       </c>
@@ -11239,8 +11962,11 @@
       <c r="I257">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" hidden="1">
+      <c r="J257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>22</v>
       </c>
@@ -11268,8 +11994,11 @@
       <c r="I258">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" hidden="1">
+      <c r="J258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>22</v>
       </c>
@@ -11297,8 +12026,11 @@
       <c r="I259">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" hidden="1">
+      <c r="J259" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>22</v>
       </c>
@@ -11326,8 +12058,11 @@
       <c r="I260">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" hidden="1">
+      <c r="J260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>22</v>
       </c>
@@ -11355,8 +12090,11 @@
       <c r="I261">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" hidden="1">
+      <c r="J261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>22</v>
       </c>
@@ -11384,8 +12122,11 @@
       <c r="I262">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" hidden="1">
+      <c r="J262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>22</v>
       </c>
@@ -11413,8 +12154,11 @@
       <c r="I263">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" hidden="1">
+      <c r="J263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>22</v>
       </c>
@@ -11442,8 +12186,11 @@
       <c r="I264">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" hidden="1">
+      <c r="J264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>22</v>
       </c>
@@ -11471,8 +12218,11 @@
       <c r="I265">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1">
+      <c r="J265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>23</v>
       </c>
@@ -11500,8 +12250,11 @@
       <c r="I266">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1">
+      <c r="J266" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>23</v>
       </c>
@@ -11529,8 +12282,11 @@
       <c r="I267">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" hidden="1">
+      <c r="J267" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>23</v>
       </c>
@@ -11558,8 +12314,11 @@
       <c r="I268">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1">
+      <c r="J268" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>23</v>
       </c>
@@ -11587,8 +12346,11 @@
       <c r="I269">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" hidden="1">
+      <c r="J269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>23</v>
       </c>
@@ -11616,8 +12378,11 @@
       <c r="I270">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" hidden="1">
+      <c r="J270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>23</v>
       </c>
@@ -11645,8 +12410,11 @@
       <c r="I271">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" hidden="1">
+      <c r="J271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>23</v>
       </c>
@@ -11674,8 +12442,11 @@
       <c r="I272">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" hidden="1">
+      <c r="J272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>23</v>
       </c>
@@ -11703,8 +12474,11 @@
       <c r="I273">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" hidden="1">
+      <c r="J273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>23</v>
       </c>
@@ -11732,8 +12506,11 @@
       <c r="I274">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" hidden="1">
+      <c r="J274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>23</v>
       </c>
@@ -11761,8 +12538,11 @@
       <c r="I275">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" hidden="1">
+      <c r="J275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>23</v>
       </c>
@@ -11790,8 +12570,11 @@
       <c r="I276">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" hidden="1">
+      <c r="J276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>23</v>
       </c>
@@ -11819,8 +12602,11 @@
       <c r="I277">
         <v>0.40639999999999998</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" hidden="1">
+      <c r="J277" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>24</v>
       </c>
@@ -11848,8 +12634,11 @@
       <c r="I278">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" hidden="1">
+      <c r="J278" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>24</v>
       </c>
@@ -11877,8 +12666,11 @@
       <c r="I279">
         <v>0.40150000000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" hidden="1">
+      <c r="J279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>24</v>
       </c>
@@ -11906,9 +12698,11 @@
       <c r="I280">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J280" s="2"/>
-    </row>
-    <row r="281" spans="1:10" hidden="1">
+      <c r="J280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>24</v>
       </c>
@@ -11936,9 +12730,11 @@
       <c r="I281">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J281" s="2"/>
-    </row>
-    <row r="282" spans="1:10" hidden="1">
+      <c r="J281" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>24</v>
       </c>
@@ -11966,9 +12762,11 @@
       <c r="I282">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J282" s="2"/>
-    </row>
-    <row r="283" spans="1:10" hidden="1">
+      <c r="J282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>24</v>
       </c>
@@ -11996,9 +12794,11 @@
       <c r="I283">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J283" s="2"/>
-    </row>
-    <row r="284" spans="1:10" hidden="1">
+      <c r="J283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>24</v>
       </c>
@@ -12026,9 +12826,11 @@
       <c r="I284">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J284" s="2"/>
-    </row>
-    <row r="285" spans="1:10" hidden="1">
+      <c r="J284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>24</v>
       </c>
@@ -12056,9 +12858,11 @@
       <c r="I285">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J285" s="2"/>
-    </row>
-    <row r="286" spans="1:10" hidden="1">
+      <c r="J285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>24</v>
       </c>
@@ -12086,9 +12890,11 @@
       <c r="I286">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J286" s="2"/>
-    </row>
-    <row r="287" spans="1:10" hidden="1">
+      <c r="J286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>24</v>
       </c>
@@ -12116,9 +12922,11 @@
       <c r="I287">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J287" s="2"/>
-    </row>
-    <row r="288" spans="1:10" hidden="1">
+      <c r="J287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>24</v>
       </c>
@@ -12146,9 +12954,11 @@
       <c r="I288">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J288" s="2"/>
-    </row>
-    <row r="289" spans="1:10" hidden="1">
+      <c r="J288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>24</v>
       </c>
@@ -12176,9 +12986,11 @@
       <c r="I289">
         <v>0.40150000000000002</v>
       </c>
-      <c r="J289" s="2"/>
-    </row>
-    <row r="290" spans="1:10" hidden="1">
+      <c r="J289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>25</v>
       </c>
@@ -12206,9 +13018,11 @@
       <c r="I290">
         <v>0.3594</v>
       </c>
-      <c r="J290" s="2"/>
-    </row>
-    <row r="291" spans="1:10" hidden="1">
+      <c r="J290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>25</v>
       </c>
@@ -12236,9 +13050,11 @@
       <c r="I291">
         <v>0.3594</v>
       </c>
-      <c r="J291" s="2"/>
-    </row>
-    <row r="292" spans="1:10" hidden="1">
+      <c r="J291" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>25</v>
       </c>
@@ -12266,9 +13082,11 @@
       <c r="I292">
         <v>0.3594</v>
       </c>
-      <c r="J292" s="2"/>
-    </row>
-    <row r="293" spans="1:10" hidden="1">
+      <c r="J292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>25</v>
       </c>
@@ -12296,9 +13114,11 @@
       <c r="I293">
         <v>0.3594</v>
       </c>
-      <c r="J293" s="2"/>
-    </row>
-    <row r="294" spans="1:10" hidden="1">
+      <c r="J293" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>25</v>
       </c>
@@ -12326,9 +13146,11 @@
       <c r="I294">
         <v>0.3594</v>
       </c>
-      <c r="J294" s="2"/>
-    </row>
-    <row r="295" spans="1:10" hidden="1">
+      <c r="J294" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>25</v>
       </c>
@@ -12356,9 +13178,11 @@
       <c r="I295">
         <v>0.3594</v>
       </c>
-      <c r="J295" s="2"/>
-    </row>
-    <row r="296" spans="1:10" hidden="1">
+      <c r="J295" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>25</v>
       </c>
@@ -12386,8 +13210,11 @@
       <c r="I296">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" hidden="1">
+      <c r="J296" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>25</v>
       </c>
@@ -12415,8 +13242,11 @@
       <c r="I297">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" hidden="1">
+      <c r="J297" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>25</v>
       </c>
@@ -12444,8 +13274,11 @@
       <c r="I298">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" hidden="1">
+      <c r="J298" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>25</v>
       </c>
@@ -12473,8 +13306,11 @@
       <c r="I299">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" hidden="1">
+      <c r="J299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>25</v>
       </c>
@@ -12502,8 +13338,11 @@
       <c r="I300">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" hidden="1">
+      <c r="J300" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>25</v>
       </c>
@@ -12531,8 +13370,11 @@
       <c r="I301">
         <v>0.3594</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" hidden="1">
+      <c r="J301" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>26</v>
       </c>
@@ -12560,8 +13402,11 @@
       <c r="I302">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" hidden="1">
+      <c r="J302" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>26</v>
       </c>
@@ -12589,8 +13434,11 @@
       <c r="I303">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" hidden="1">
+      <c r="J303" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>26</v>
       </c>
@@ -12618,8 +13466,11 @@
       <c r="I304">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" hidden="1">
+      <c r="J304" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>26</v>
       </c>
@@ -12647,8 +13498,11 @@
       <c r="I305">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" hidden="1">
+      <c r="J305" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>26</v>
       </c>
@@ -12676,8 +13530,11 @@
       <c r="I306">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" hidden="1">
+      <c r="J306" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>26</v>
       </c>
@@ -12705,8 +13562,11 @@
       <c r="I307">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" hidden="1">
+      <c r="J307" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>26</v>
       </c>
@@ -12734,8 +13594,11 @@
       <c r="I308">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1">
+      <c r="J308" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>26</v>
       </c>
@@ -12763,8 +13626,11 @@
       <c r="I309">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" hidden="1">
+      <c r="J309" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>26</v>
       </c>
@@ -12792,8 +13658,11 @@
       <c r="I310">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" hidden="1">
+      <c r="J310" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>26</v>
       </c>
@@ -12821,8 +13690,11 @@
       <c r="I311">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" hidden="1">
+      <c r="J311" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>26</v>
       </c>
@@ -12850,8 +13722,11 @@
       <c r="I312">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" hidden="1">
+      <c r="J312" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>26</v>
       </c>
@@ -12879,8 +13754,11 @@
       <c r="I313">
         <v>0.30080000000000001</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" hidden="1">
+      <c r="J313" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>27</v>
       </c>
@@ -12908,8 +13786,11 @@
       <c r="I314">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" hidden="1">
+      <c r="J314" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>27</v>
       </c>
@@ -12937,8 +13818,11 @@
       <c r="I315">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" hidden="1">
+      <c r="J315" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>27</v>
       </c>
@@ -12966,8 +13850,11 @@
       <c r="I316">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1">
+      <c r="J316" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>27</v>
       </c>
@@ -12995,8 +13882,11 @@
       <c r="I317">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" hidden="1">
+      <c r="J317" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>27</v>
       </c>
@@ -13024,8 +13914,11 @@
       <c r="I318">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" hidden="1">
+      <c r="J318" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>27</v>
       </c>
@@ -13053,8 +13946,11 @@
       <c r="I319">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" hidden="1">
+      <c r="J319" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>27</v>
       </c>
@@ -13082,8 +13978,11 @@
       <c r="I320">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" hidden="1">
+      <c r="J320" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>27</v>
       </c>
@@ -13111,8 +14010,11 @@
       <c r="I321">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" hidden="1">
+      <c r="J321" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>27</v>
       </c>
@@ -13140,8 +14042,11 @@
       <c r="I322">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" hidden="1">
+      <c r="J322" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>27</v>
       </c>
@@ -13169,8 +14074,11 @@
       <c r="I323">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" hidden="1">
+      <c r="J323" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>27</v>
       </c>
@@ -13198,8 +14106,11 @@
       <c r="I324">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" hidden="1">
+      <c r="J324" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>27</v>
       </c>
@@ -13227,8 +14138,11 @@
       <c r="I325">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" hidden="1">
+      <c r="J325" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>28</v>
       </c>
@@ -13256,8 +14170,11 @@
       <c r="I326">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" hidden="1">
+      <c r="J326" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>28</v>
       </c>
@@ -13285,8 +14202,11 @@
       <c r="I327">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" hidden="1">
+      <c r="J327" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>28</v>
       </c>
@@ -13314,8 +14234,11 @@
       <c r="I328">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" hidden="1">
+      <c r="J328" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>28</v>
       </c>
@@ -13343,8 +14266,11 @@
       <c r="I329">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" hidden="1">
+      <c r="J329" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>28</v>
       </c>
@@ -13372,8 +14298,11 @@
       <c r="I330">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" hidden="1">
+      <c r="J330" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>28</v>
       </c>
@@ -13401,8 +14330,11 @@
       <c r="I331">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1">
+      <c r="J331" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>28</v>
       </c>
@@ -13430,8 +14362,11 @@
       <c r="I332">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" hidden="1">
+      <c r="J332" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>28</v>
       </c>
@@ -13459,8 +14394,11 @@
       <c r="I333">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" hidden="1">
+      <c r="J333" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>28</v>
       </c>
@@ -13488,8 +14426,11 @@
       <c r="I334">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" hidden="1">
+      <c r="J334" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>28</v>
       </c>
@@ -13517,8 +14458,11 @@
       <c r="I335">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" hidden="1">
+      <c r="J335" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>28</v>
       </c>
@@ -13546,8 +14490,11 @@
       <c r="I336">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" hidden="1">
+      <c r="J336" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>28</v>
       </c>
@@ -13575,8 +14522,11 @@
       <c r="I337">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" hidden="1">
+      <c r="J337" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>29</v>
       </c>
@@ -13604,8 +14554,11 @@
       <c r="I338">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" hidden="1">
+      <c r="J338" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>29</v>
       </c>
@@ -13633,8 +14586,11 @@
       <c r="I339">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" hidden="1">
+      <c r="J339" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>29</v>
       </c>
@@ -13662,8 +14618,11 @@
       <c r="I340">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" hidden="1">
+      <c r="J340" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>29</v>
       </c>
@@ -13691,8 +14650,11 @@
       <c r="I341">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" hidden="1">
+      <c r="J341" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>29</v>
       </c>
@@ -13720,8 +14682,11 @@
       <c r="I342">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" hidden="1">
+      <c r="J342" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>29</v>
       </c>
@@ -13749,8 +14714,11 @@
       <c r="I343">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" hidden="1">
+      <c r="J343" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>29</v>
       </c>
@@ -13778,8 +14746,11 @@
       <c r="I344">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" hidden="1">
+      <c r="J344" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>29</v>
       </c>
@@ -13807,8 +14778,11 @@
       <c r="I345">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" hidden="1">
+      <c r="J345" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>29</v>
       </c>
@@ -13836,8 +14810,11 @@
       <c r="I346">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" hidden="1">
+      <c r="J346" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>29</v>
       </c>
@@ -13865,8 +14842,11 @@
       <c r="I347">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" hidden="1">
+      <c r="J347" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>29</v>
       </c>
@@ -13894,8 +14874,11 @@
       <c r="I348">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" hidden="1">
+      <c r="J348" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>29</v>
       </c>
@@ -13923,8 +14906,11 @@
       <c r="I349">
         <v>0.31230000000000002</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" hidden="1">
+      <c r="J349" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>30</v>
       </c>
@@ -13952,8 +14938,11 @@
       <c r="I350">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" hidden="1">
+      <c r="J350" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>30</v>
       </c>
@@ -13981,8 +14970,11 @@
       <c r="I351">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" hidden="1">
+      <c r="J351" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>30</v>
       </c>
@@ -14010,8 +15002,11 @@
       <c r="I352">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" hidden="1">
+      <c r="J352" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>30</v>
       </c>
@@ -14039,8 +15034,11 @@
       <c r="I353">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" hidden="1">
+      <c r="J353" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>30</v>
       </c>
@@ -14068,8 +15066,11 @@
       <c r="I354">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" hidden="1">
+      <c r="J354" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>30</v>
       </c>
@@ -14097,8 +15098,11 @@
       <c r="I355">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" hidden="1">
+      <c r="J355" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>30</v>
       </c>
@@ -14126,8 +15130,11 @@
       <c r="I356">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" hidden="1">
+      <c r="J356" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>30</v>
       </c>
@@ -14155,8 +15162,11 @@
       <c r="I357">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" hidden="1">
+      <c r="J357" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>30</v>
       </c>
@@ -14184,8 +15194,11 @@
       <c r="I358">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" hidden="1">
+      <c r="J358" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>30</v>
       </c>
@@ -14213,8 +15226,11 @@
       <c r="I359">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" hidden="1">
+      <c r="J359" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>30</v>
       </c>
@@ -14242,8 +15258,11 @@
       <c r="I360">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" hidden="1">
+      <c r="J360" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>30</v>
       </c>
@@ -14271,8 +15290,11 @@
       <c r="I361">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" hidden="1">
+      <c r="J361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>31</v>
       </c>
@@ -14300,8 +15322,11 @@
       <c r="I362">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" hidden="1">
+      <c r="J362" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>31</v>
       </c>
@@ -14329,8 +15354,11 @@
       <c r="I363">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" hidden="1">
+      <c r="J363" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>31</v>
       </c>
@@ -14358,8 +15386,11 @@
       <c r="I364">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" hidden="1">
+      <c r="J364" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>31</v>
       </c>
@@ -14387,8 +15418,11 @@
       <c r="I365">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" hidden="1">
+      <c r="J365" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>31</v>
       </c>
@@ -14416,8 +15450,11 @@
       <c r="I366">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" hidden="1">
+      <c r="J366" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>31</v>
       </c>
@@ -14445,8 +15482,11 @@
       <c r="I367">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" hidden="1">
+      <c r="J367" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>31</v>
       </c>
@@ -14474,8 +15514,11 @@
       <c r="I368">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" hidden="1">
+      <c r="J368" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>31</v>
       </c>
@@ -14503,8 +15546,11 @@
       <c r="I369">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" hidden="1">
+      <c r="J369" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>31</v>
       </c>
@@ -14532,8 +15578,11 @@
       <c r="I370">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" hidden="1">
+      <c r="J370" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>31</v>
       </c>
@@ -14561,8 +15610,11 @@
       <c r="I371">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" hidden="1">
+      <c r="J371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>31</v>
       </c>
@@ -14590,8 +15642,11 @@
       <c r="I372">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" hidden="1">
+      <c r="J372" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>31</v>
       </c>
@@ -14619,8 +15674,11 @@
       <c r="I373">
         <v>0.22889999999999999</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" hidden="1">
+      <c r="J373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>32</v>
       </c>
@@ -14648,8 +15706,11 @@
       <c r="I374">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" hidden="1">
+      <c r="J374" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>32</v>
       </c>
@@ -14677,8 +15738,11 @@
       <c r="I375">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" hidden="1">
+      <c r="J375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>32</v>
       </c>
@@ -14706,8 +15770,11 @@
       <c r="I376">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" hidden="1">
+      <c r="J376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>32</v>
       </c>
@@ -14735,8 +15802,11 @@
       <c r="I377">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" hidden="1">
+      <c r="J377" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>32</v>
       </c>
@@ -14764,8 +15834,11 @@
       <c r="I378">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" hidden="1">
+      <c r="J378" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>32</v>
       </c>
@@ -14793,8 +15866,11 @@
       <c r="I379">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" hidden="1">
+      <c r="J379" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>32</v>
       </c>
@@ -14822,8 +15898,11 @@
       <c r="I380">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" hidden="1">
+      <c r="J380" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>32</v>
       </c>
@@ -14851,8 +15930,11 @@
       <c r="I381">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" hidden="1">
+      <c r="J381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>32</v>
       </c>
@@ -14880,8 +15962,11 @@
       <c r="I382">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" hidden="1">
+      <c r="J382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>32</v>
       </c>
@@ -14909,8 +15994,11 @@
       <c r="I383">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" hidden="1">
+      <c r="J383" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>32</v>
       </c>
@@ -14938,8 +16026,11 @@
       <c r="I384">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" hidden="1">
+      <c r="J384" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>32</v>
       </c>
@@ -14967,8 +16058,11 @@
       <c r="I385">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" hidden="1">
+      <c r="J385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>33</v>
       </c>
@@ -14996,8 +16090,11 @@
       <c r="I386">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" hidden="1">
+      <c r="J386" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>33</v>
       </c>
@@ -15025,8 +16122,11 @@
       <c r="I387">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" hidden="1">
+      <c r="J387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>33</v>
       </c>
@@ -15054,8 +16154,11 @@
       <c r="I388">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" hidden="1">
+      <c r="J388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>33</v>
       </c>
@@ -15083,8 +16186,11 @@
       <c r="I389">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" hidden="1">
+      <c r="J389" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>33</v>
       </c>
@@ -15112,8 +16218,11 @@
       <c r="I390">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" hidden="1">
+      <c r="J390" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>33</v>
       </c>
@@ -15141,8 +16250,11 @@
       <c r="I391">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" hidden="1">
+      <c r="J391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>33</v>
       </c>
@@ -15170,8 +16282,11 @@
       <c r="I392">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" hidden="1">
+      <c r="J392" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>33</v>
       </c>
@@ -15199,8 +16314,11 @@
       <c r="I393">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" hidden="1">
+      <c r="J393" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>33</v>
       </c>
@@ -15228,8 +16346,11 @@
       <c r="I394">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" hidden="1">
+      <c r="J394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>33</v>
       </c>
@@ -15257,8 +16378,11 @@
       <c r="I395">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" hidden="1">
+      <c r="J395" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>33</v>
       </c>
@@ -15286,8 +16410,11 @@
       <c r="I396">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" hidden="1">
+      <c r="J396" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>33</v>
       </c>
@@ -15315,8 +16442,11 @@
       <c r="I397">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" hidden="1">
+      <c r="J397" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>34</v>
       </c>
@@ -15344,8 +16474,11 @@
       <c r="I398">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" hidden="1">
+      <c r="J398" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>34</v>
       </c>
@@ -15373,8 +16506,11 @@
       <c r="I399">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" hidden="1">
+      <c r="J399" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>34</v>
       </c>
@@ -15402,8 +16538,11 @@
       <c r="I400">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" hidden="1">
+      <c r="J400" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>34</v>
       </c>
@@ -15431,8 +16570,11 @@
       <c r="I401">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" hidden="1">
+      <c r="J401" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>34</v>
       </c>
@@ -15460,8 +16602,11 @@
       <c r="I402">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" hidden="1">
+      <c r="J402" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>34</v>
       </c>
@@ -15489,8 +16634,11 @@
       <c r="I403">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" hidden="1">
+      <c r="J403" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>34</v>
       </c>
@@ -15518,8 +16666,11 @@
       <c r="I404">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" hidden="1">
+      <c r="J404" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>34</v>
       </c>
@@ -15547,8 +16698,11 @@
       <c r="I405">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" hidden="1">
+      <c r="J405" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>34</v>
       </c>
@@ -15576,8 +16730,11 @@
       <c r="I406">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" hidden="1">
+      <c r="J406" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -15605,8 +16762,11 @@
       <c r="I407">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" hidden="1">
+      <c r="J407" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>34</v>
       </c>
@@ -15634,8 +16794,11 @@
       <c r="I408">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" hidden="1">
+      <c r="J408" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>34</v>
       </c>
@@ -15663,8 +16826,11 @@
       <c r="I409">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" hidden="1">
+      <c r="J409" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>35</v>
       </c>
@@ -15692,8 +16858,11 @@
       <c r="I410">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" hidden="1">
+      <c r="J410" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>35</v>
       </c>
@@ -15721,8 +16890,11 @@
       <c r="I411">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" hidden="1">
+      <c r="J411" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>35</v>
       </c>
@@ -15750,8 +16922,11 @@
       <c r="I412">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" hidden="1">
+      <c r="J412" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>35</v>
       </c>
@@ -15779,8 +16954,11 @@
       <c r="I413">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" hidden="1">
+      <c r="J413" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>35</v>
       </c>
@@ -15808,8 +16986,11 @@
       <c r="I414">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" hidden="1">
+      <c r="J414" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>35</v>
       </c>
@@ -15837,8 +17018,11 @@
       <c r="I415">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" hidden="1">
+      <c r="J415" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>35</v>
       </c>
@@ -15866,8 +17050,11 @@
       <c r="I416">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" hidden="1">
+      <c r="J416" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>35</v>
       </c>
@@ -15895,8 +17082,11 @@
       <c r="I417">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" hidden="1">
+      <c r="J417" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>35</v>
       </c>
@@ -15924,8 +17114,11 @@
       <c r="I418">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" hidden="1">
+      <c r="J418" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>35</v>
       </c>
@@ -15953,8 +17146,11 @@
       <c r="I419">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" hidden="1">
+      <c r="J419" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>35</v>
       </c>
@@ -15982,8 +17178,11 @@
       <c r="I420">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" hidden="1">
+      <c r="J420" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>35</v>
       </c>
@@ -16011,8 +17210,11 @@
       <c r="I421">
         <v>0.21059999999999998</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" hidden="1">
+      <c r="J421" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>36</v>
       </c>
@@ -16040,8 +17242,11 @@
       <c r="I422">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" hidden="1">
+      <c r="J422" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>36</v>
       </c>
@@ -16069,8 +17274,11 @@
       <c r="I423">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" hidden="1">
+      <c r="J423" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>36</v>
       </c>
@@ -16098,8 +17306,11 @@
       <c r="I424">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" hidden="1">
+      <c r="J424" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>36</v>
       </c>
@@ -16127,8 +17338,11 @@
       <c r="I425">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" hidden="1">
+      <c r="J425" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>36</v>
       </c>
@@ -16156,8 +17370,11 @@
       <c r="I426">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" hidden="1">
+      <c r="J426" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>36</v>
       </c>
@@ -16185,8 +17402,11 @@
       <c r="I427">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" hidden="1">
+      <c r="J427" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>36</v>
       </c>
@@ -16214,8 +17434,11 @@
       <c r="I428">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" hidden="1">
+      <c r="J428" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>36</v>
       </c>
@@ -16243,8 +17466,11 @@
       <c r="I429">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" hidden="1">
+      <c r="J429" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>36</v>
       </c>
@@ -16272,8 +17498,11 @@
       <c r="I430">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" hidden="1">
+      <c r="J430" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>36</v>
       </c>
@@ -16301,8 +17530,11 @@
       <c r="I431">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" hidden="1">
+      <c r="J431" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>36</v>
       </c>
@@ -16330,8 +17562,11 @@
       <c r="I432">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="433" spans="1:27" hidden="1">
+      <c r="J432" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>36</v>
       </c>
@@ -16359,8 +17594,11 @@
       <c r="I433">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="434" spans="1:27">
+      <c r="J433" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>37</v>
       </c>
@@ -16388,26 +17626,20 @@
       <c r="I434">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J434">
-        <v>0</v>
+      <c r="J434" s="3">
+        <v>2</v>
       </c>
       <c r="W434">
         <v>0</v>
       </c>
       <c r="X434">
-        <v>1</v>
-      </c>
-      <c r="Y434">
         <v>0</v>
       </c>
-      <c r="Z434">
-        <v>0</v>
-      </c>
-      <c r="AA434" s="5">
+      <c r="Y434" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="435" spans="1:27">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>37</v>
       </c>
@@ -16435,23 +17667,17 @@
       <c r="I435">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J435">
-        <v>0</v>
+      <c r="J435" s="3">
+        <v>2</v>
       </c>
       <c r="K435">
         <v>0</v>
       </c>
-      <c r="W435">
-        <v>0</v>
-      </c>
-      <c r="X435">
-        <v>1</v>
-      </c>
-      <c r="AA435">
+      <c r="Y435">
         <v>250</v>
       </c>
     </row>
-    <row r="436" spans="1:27">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>37</v>
       </c>
@@ -16479,23 +17705,17 @@
       <c r="I436">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J436">
-        <v>0</v>
+      <c r="J436" s="3">
+        <v>2</v>
       </c>
       <c r="K436">
         <v>0</v>
       </c>
-      <c r="W436">
-        <v>0</v>
-      </c>
-      <c r="X436">
-        <v>1</v>
-      </c>
-      <c r="AA436">
+      <c r="Y436">
         <v>250</v>
       </c>
     </row>
-    <row r="437" spans="1:27">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>37</v>
       </c>
@@ -16523,23 +17743,17 @@
       <c r="I437">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J437">
-        <v>0</v>
+      <c r="J437" s="3">
+        <v>2</v>
       </c>
       <c r="K437">
         <v>0</v>
       </c>
-      <c r="W437">
-        <v>0</v>
-      </c>
-      <c r="X437">
-        <v>1</v>
-      </c>
-      <c r="AA437">
+      <c r="Y437">
         <v>250</v>
       </c>
     </row>
-    <row r="438" spans="1:27">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>37</v>
       </c>
@@ -16567,23 +17781,17 @@
       <c r="I438">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J438">
-        <v>0</v>
+      <c r="J438" s="3">
+        <v>2</v>
       </c>
       <c r="K438">
         <v>0</v>
       </c>
-      <c r="W438">
-        <v>0</v>
-      </c>
-      <c r="X438">
-        <v>1</v>
-      </c>
-      <c r="AA438">
+      <c r="Y438">
         <v>250</v>
       </c>
     </row>
-    <row r="439" spans="1:27">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>37</v>
       </c>
@@ -16611,23 +17819,17 @@
       <c r="I439">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J439">
-        <v>0</v>
+      <c r="J439" s="3">
+        <v>2</v>
       </c>
       <c r="K439">
         <v>0</v>
       </c>
-      <c r="W439">
-        <v>0</v>
-      </c>
-      <c r="X439">
-        <v>1</v>
-      </c>
-      <c r="AA439">
+      <c r="Y439">
         <v>250</v>
       </c>
     </row>
-    <row r="440" spans="1:27">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>37</v>
       </c>
@@ -16655,23 +17857,17 @@
       <c r="I440">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J440">
-        <v>0</v>
+      <c r="J440" s="3">
+        <v>2</v>
       </c>
       <c r="K440">
         <v>0</v>
       </c>
-      <c r="W440">
-        <v>0</v>
-      </c>
-      <c r="X440">
-        <v>1</v>
-      </c>
-      <c r="AA440">
+      <c r="Y440">
         <v>250</v>
       </c>
     </row>
-    <row r="441" spans="1:27">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>37</v>
       </c>
@@ -16699,23 +17895,17 @@
       <c r="I441">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J441">
-        <v>0</v>
+      <c r="J441" s="3">
+        <v>2</v>
       </c>
       <c r="K441">
         <v>0</v>
       </c>
-      <c r="W441">
-        <v>0</v>
-      </c>
-      <c r="X441">
-        <v>1</v>
-      </c>
-      <c r="AA441">
+      <c r="Y441">
         <v>250</v>
       </c>
     </row>
-    <row r="442" spans="1:27">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>37</v>
       </c>
@@ -16743,23 +17933,17 @@
       <c r="I442">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J442">
-        <v>0</v>
+      <c r="J442" s="3">
+        <v>2</v>
       </c>
       <c r="K442">
         <v>0</v>
       </c>
-      <c r="W442">
-        <v>0</v>
-      </c>
-      <c r="X442">
-        <v>1</v>
-      </c>
-      <c r="AA442">
+      <c r="Y442">
         <v>250</v>
       </c>
     </row>
-    <row r="443" spans="1:27">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>37</v>
       </c>
@@ -16787,23 +17971,17 @@
       <c r="I443">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J443">
-        <v>0</v>
+      <c r="J443" s="3">
+        <v>2</v>
       </c>
       <c r="K443">
         <v>0</v>
       </c>
-      <c r="W443">
-        <v>0</v>
-      </c>
-      <c r="X443">
-        <v>1</v>
-      </c>
-      <c r="AA443">
+      <c r="Y443">
         <v>250</v>
       </c>
     </row>
-    <row r="444" spans="1:27">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>37</v>
       </c>
@@ -16831,23 +18009,17 @@
       <c r="I444">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J444">
-        <v>0</v>
+      <c r="J444" s="3">
+        <v>2</v>
       </c>
       <c r="K444">
         <v>0</v>
       </c>
-      <c r="W444">
-        <v>0</v>
-      </c>
-      <c r="X444">
-        <v>1</v>
-      </c>
-      <c r="AA444">
+      <c r="Y444">
         <v>250</v>
       </c>
     </row>
-    <row r="445" spans="1:27">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>37</v>
       </c>
@@ -16875,23 +18047,17 @@
       <c r="I445">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J445">
-        <v>0</v>
+      <c r="J445" s="3">
+        <v>2</v>
       </c>
       <c r="K445">
         <v>0</v>
       </c>
-      <c r="W445">
-        <v>0</v>
-      </c>
-      <c r="X445">
-        <v>1</v>
-      </c>
-      <c r="AA445">
+      <c r="Y445">
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:27">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>38</v>
       </c>
@@ -16919,23 +18085,17 @@
       <c r="I446">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J446">
-        <v>0</v>
+      <c r="J446" s="3">
+        <v>2</v>
       </c>
       <c r="K446">
         <v>0</v>
       </c>
-      <c r="W446">
-        <v>0</v>
-      </c>
-      <c r="X446">
-        <v>1</v>
-      </c>
-      <c r="AA446">
+      <c r="Y446">
         <v>250</v>
       </c>
     </row>
-    <row r="447" spans="1:27">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>38</v>
       </c>
@@ -16963,23 +18123,17 @@
       <c r="I447">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J447">
-        <v>0</v>
+      <c r="J447" s="3">
+        <v>2</v>
       </c>
       <c r="K447">
         <v>0</v>
       </c>
-      <c r="W447">
-        <v>0</v>
-      </c>
-      <c r="X447">
-        <v>1</v>
-      </c>
-      <c r="AA447">
+      <c r="Y447">
         <v>250</v>
       </c>
     </row>
-    <row r="448" spans="1:27">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>38</v>
       </c>
@@ -17007,23 +18161,17 @@
       <c r="I448">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J448">
-        <v>0</v>
+      <c r="J448" s="3">
+        <v>2</v>
       </c>
       <c r="K448">
         <v>0</v>
       </c>
-      <c r="W448">
-        <v>0</v>
-      </c>
-      <c r="X448">
-        <v>1</v>
-      </c>
-      <c r="AA448">
+      <c r="Y448">
         <v>250</v>
       </c>
     </row>
-    <row r="449" spans="1:27">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>38</v>
       </c>
@@ -17051,23 +18199,17 @@
       <c r="I449">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J449">
-        <v>0</v>
+      <c r="J449" s="3">
+        <v>2</v>
       </c>
       <c r="K449">
         <v>0</v>
       </c>
-      <c r="W449">
-        <v>0</v>
-      </c>
-      <c r="X449">
-        <v>1</v>
-      </c>
-      <c r="AA449">
+      <c r="Y449">
         <v>250</v>
       </c>
     </row>
-    <row r="450" spans="1:27">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>38</v>
       </c>
@@ -17095,23 +18237,17 @@
       <c r="I450">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J450">
-        <v>0</v>
+      <c r="J450" s="3">
+        <v>2</v>
       </c>
       <c r="K450">
         <v>0</v>
       </c>
-      <c r="W450">
-        <v>0</v>
-      </c>
-      <c r="X450">
-        <v>1</v>
-      </c>
-      <c r="AA450">
+      <c r="Y450">
         <v>250</v>
       </c>
     </row>
-    <row r="451" spans="1:27">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>38</v>
       </c>
@@ -17139,23 +18275,17 @@
       <c r="I451">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J451">
-        <v>0</v>
+      <c r="J451" s="3">
+        <v>2</v>
       </c>
       <c r="K451">
         <v>0</v>
       </c>
-      <c r="W451">
-        <v>0</v>
-      </c>
-      <c r="X451">
-        <v>1</v>
-      </c>
-      <c r="AA451">
+      <c r="Y451">
         <v>250</v>
       </c>
     </row>
-    <row r="452" spans="1:27">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>38</v>
       </c>
@@ -17183,23 +18313,17 @@
       <c r="I452">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J452">
-        <v>0</v>
+      <c r="J452" s="3">
+        <v>2</v>
       </c>
       <c r="K452">
         <v>0</v>
       </c>
-      <c r="W452">
-        <v>0</v>
-      </c>
-      <c r="X452">
-        <v>1</v>
-      </c>
-      <c r="AA452">
+      <c r="Y452">
         <v>250</v>
       </c>
     </row>
-    <row r="453" spans="1:27">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>38</v>
       </c>
@@ -17227,23 +18351,17 @@
       <c r="I453">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J453">
-        <v>0</v>
+      <c r="J453" s="3">
+        <v>2</v>
       </c>
       <c r="K453">
         <v>0</v>
       </c>
-      <c r="W453">
-        <v>0</v>
-      </c>
-      <c r="X453">
-        <v>1</v>
-      </c>
-      <c r="AA453">
+      <c r="Y453">
         <v>250</v>
       </c>
     </row>
-    <row r="454" spans="1:27">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>38</v>
       </c>
@@ -17271,23 +18389,17 @@
       <c r="I454">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J454">
-        <v>0</v>
+      <c r="J454" s="3">
+        <v>2</v>
       </c>
       <c r="K454">
         <v>0</v>
       </c>
-      <c r="W454">
-        <v>0</v>
-      </c>
-      <c r="X454">
-        <v>1</v>
-      </c>
-      <c r="AA454">
+      <c r="Y454">
         <v>250</v>
       </c>
     </row>
-    <row r="455" spans="1:27">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>38</v>
       </c>
@@ -17315,23 +18427,17 @@
       <c r="I455">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J455">
-        <v>0</v>
+      <c r="J455" s="3">
+        <v>2</v>
       </c>
       <c r="K455">
         <v>0</v>
       </c>
-      <c r="W455">
-        <v>0</v>
-      </c>
-      <c r="X455">
-        <v>1</v>
-      </c>
-      <c r="AA455">
+      <c r="Y455">
         <v>250</v>
       </c>
     </row>
-    <row r="456" spans="1:27">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>38</v>
       </c>
@@ -17359,23 +18465,17 @@
       <c r="I456">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J456">
-        <v>0</v>
+      <c r="J456" s="3">
+        <v>2</v>
       </c>
       <c r="K456">
         <v>0</v>
       </c>
-      <c r="W456">
-        <v>0</v>
-      </c>
-      <c r="X456">
-        <v>1</v>
-      </c>
-      <c r="AA456">
+      <c r="Y456">
         <v>250</v>
       </c>
     </row>
-    <row r="457" spans="1:27">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>38</v>
       </c>
@@ -17403,23 +18503,17 @@
       <c r="I457">
         <v>0.21080000000000002</v>
       </c>
-      <c r="J457">
-        <v>0</v>
+      <c r="J457" s="3">
+        <v>2</v>
       </c>
       <c r="K457">
         <v>0</v>
       </c>
-      <c r="W457">
-        <v>0</v>
-      </c>
-      <c r="X457">
-        <v>1</v>
-      </c>
-      <c r="AA457">
+      <c r="Y457">
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:27">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>39</v>
       </c>
@@ -17447,23 +18541,17 @@
       <c r="I458">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J458">
-        <v>0</v>
+      <c r="J458" s="3">
+        <v>2</v>
       </c>
       <c r="K458">
         <v>0</v>
       </c>
-      <c r="W458">
-        <v>0</v>
-      </c>
-      <c r="X458">
-        <v>1</v>
-      </c>
-      <c r="AA458">
+      <c r="Y458">
         <v>300</v>
       </c>
     </row>
-    <row r="459" spans="1:27">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>39</v>
       </c>
@@ -17491,23 +18579,17 @@
       <c r="I459">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J459">
-        <v>0</v>
+      <c r="J459" s="3">
+        <v>2</v>
       </c>
       <c r="K459">
         <v>0</v>
       </c>
-      <c r="W459">
-        <v>0</v>
-      </c>
-      <c r="X459">
-        <v>1</v>
-      </c>
-      <c r="AA459">
+      <c r="Y459">
         <v>300</v>
       </c>
     </row>
-    <row r="460" spans="1:27">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>39</v>
       </c>
@@ -17535,23 +18617,17 @@
       <c r="I460">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J460">
-        <v>0</v>
+      <c r="J460" s="3">
+        <v>2</v>
       </c>
       <c r="K460">
         <v>0</v>
       </c>
-      <c r="W460">
-        <v>0</v>
-      </c>
-      <c r="X460">
-        <v>1</v>
-      </c>
-      <c r="AA460">
+      <c r="Y460">
         <v>300</v>
       </c>
     </row>
-    <row r="461" spans="1:27">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>39</v>
       </c>
@@ -17579,23 +18655,17 @@
       <c r="I461">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J461">
-        <v>0</v>
+      <c r="J461" s="3">
+        <v>2</v>
       </c>
       <c r="K461">
         <v>0</v>
       </c>
-      <c r="W461">
-        <v>0</v>
-      </c>
-      <c r="X461">
-        <v>1</v>
-      </c>
-      <c r="AA461">
+      <c r="Y461">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="1:27">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>39</v>
       </c>
@@ -17623,23 +18693,17 @@
       <c r="I462">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J462">
-        <v>0</v>
+      <c r="J462" s="3">
+        <v>2</v>
       </c>
       <c r="K462">
         <v>0</v>
       </c>
-      <c r="W462">
-        <v>0</v>
-      </c>
-      <c r="X462">
-        <v>1</v>
-      </c>
-      <c r="AA462">
+      <c r="Y462">
         <v>300</v>
       </c>
     </row>
-    <row r="463" spans="1:27">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>39</v>
       </c>
@@ -17667,23 +18731,17 @@
       <c r="I463">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J463">
-        <v>0</v>
+      <c r="J463" s="3">
+        <v>2</v>
       </c>
       <c r="K463">
         <v>0</v>
       </c>
-      <c r="W463">
-        <v>0</v>
-      </c>
-      <c r="X463">
-        <v>1</v>
-      </c>
-      <c r="AA463">
+      <c r="Y463">
         <v>300</v>
       </c>
     </row>
-    <row r="464" spans="1:27">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>39</v>
       </c>
@@ -17711,23 +18769,17 @@
       <c r="I464">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J464">
-        <v>0</v>
+      <c r="J464" s="3">
+        <v>2</v>
       </c>
       <c r="K464">
         <v>0</v>
       </c>
-      <c r="W464">
-        <v>0</v>
-      </c>
-      <c r="X464">
-        <v>1</v>
-      </c>
-      <c r="AA464">
+      <c r="Y464">
         <v>300</v>
       </c>
     </row>
-    <row r="465" spans="1:27">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>39</v>
       </c>
@@ -17755,23 +18807,17 @@
       <c r="I465">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J465">
-        <v>0</v>
+      <c r="J465" s="3">
+        <v>2</v>
       </c>
       <c r="K465">
         <v>0</v>
       </c>
-      <c r="W465">
-        <v>0</v>
-      </c>
-      <c r="X465">
-        <v>1</v>
-      </c>
-      <c r="AA465">
+      <c r="Y465">
         <v>300</v>
       </c>
     </row>
-    <row r="466" spans="1:27">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>39</v>
       </c>
@@ -17799,23 +18845,17 @@
       <c r="I466">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J466">
-        <v>0</v>
+      <c r="J466" s="3">
+        <v>2</v>
       </c>
       <c r="K466">
         <v>0</v>
       </c>
-      <c r="W466">
-        <v>0</v>
-      </c>
-      <c r="X466">
-        <v>1</v>
-      </c>
-      <c r="AA466">
+      <c r="Y466">
         <v>300</v>
       </c>
     </row>
-    <row r="467" spans="1:27">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>39</v>
       </c>
@@ -17843,23 +18883,17 @@
       <c r="I467">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J467">
-        <v>0</v>
+      <c r="J467" s="3">
+        <v>2</v>
       </c>
       <c r="K467">
         <v>0</v>
       </c>
-      <c r="W467">
-        <v>0</v>
-      </c>
-      <c r="X467">
-        <v>1</v>
-      </c>
-      <c r="AA467">
+      <c r="Y467">
         <v>300</v>
       </c>
     </row>
-    <row r="468" spans="1:27">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>39</v>
       </c>
@@ -17887,23 +18921,17 @@
       <c r="I468">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J468">
-        <v>0</v>
+      <c r="J468" s="3">
+        <v>2</v>
       </c>
       <c r="K468">
         <v>0</v>
       </c>
-      <c r="W468">
-        <v>0</v>
-      </c>
-      <c r="X468">
-        <v>1</v>
-      </c>
-      <c r="AA468">
+      <c r="Y468">
         <v>300</v>
       </c>
     </row>
-    <row r="469" spans="1:27">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>39</v>
       </c>
@@ -17931,30 +18959,18 @@
       <c r="I469">
         <v>0.16869999999999999</v>
       </c>
-      <c r="J469">
-        <v>0</v>
+      <c r="J469" s="3">
+        <v>2</v>
       </c>
       <c r="K469">
         <v>0</v>
       </c>
-      <c r="W469">
-        <v>0</v>
-      </c>
-      <c r="X469">
-        <v>1</v>
-      </c>
-      <c r="AA469">
+      <c r="Y469">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB469">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Classic Plus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z469" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\CMPC-manufacturing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC552BB-66AF-4E0E-A37C-DB15C27A0080}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -247,10 +241,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mmm"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="mmm"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -258,6 +252,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,18 +635,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="284" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="284" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="284" applyFont="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="284" applyFont="1"/>
   </cellXfs>
   <cellStyles count="285">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -1274,14 +1269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection sqref="A1:S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="13" width="0" hidden="1" customWidth="1"/>
@@ -1289,7 +1284,7 @@
     <col min="19" max="19" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1997,7 +1992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2115,7 +2110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2351,7 +2346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2587,7 +2582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2705,7 +2700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +2877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2941,7 +2936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3000,7 +2995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3059,7 +3054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3236,7 +3231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3295,7 +3290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3354,7 +3349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3413,7 +3408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3472,7 +3467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3590,7 +3585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3661,27 +3656,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J469" sqref="J2:J469"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="X201" sqref="X201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="16" style="5" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -3722,7 +3717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3770,7 +3765,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3802,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3834,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3866,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3898,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3930,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3962,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -3994,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -4026,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -4090,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -4158,7 +4153,7 @@
         <v>236.32090194917032</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4190,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -4222,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -4382,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4446,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4478,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -4510,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4542,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4574,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4606,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4670,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -4702,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4734,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -4766,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4798,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -4830,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -4862,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -4958,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -5022,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5054,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5086,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -5182,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5246,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -5342,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -5406,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -5502,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -5534,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -5566,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -5598,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -5630,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -5662,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -5694,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -5726,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -5758,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -5790,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -5854,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -5886,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -5918,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -5950,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -5982,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -6046,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -6078,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -6110,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -6142,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -6174,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -6238,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -6270,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -6302,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -6334,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -6398,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -6430,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -6462,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -6494,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -6526,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -6558,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -6590,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
@@ -6622,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
@@ -6654,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -6686,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
@@ -6782,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
@@ -6846,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -6878,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -6910,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -6942,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -6974,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -7006,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -7038,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -7102,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -7134,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -7166,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -7198,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -7230,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
@@ -7262,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -7294,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -7326,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
         <v>10</v>
       </c>
@@ -7358,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
         <v>10</v>
       </c>
@@ -7390,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -7422,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -7454,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -7550,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -7614,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
@@ -7678,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
@@ -7710,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -7742,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
@@ -7774,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -7806,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
@@ -7838,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
@@ -7870,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
@@ -7902,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
@@ -7934,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
         <v>11</v>
       </c>
@@ -7966,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
@@ -7998,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
@@ -8030,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -8062,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
@@ -8094,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -8126,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -8158,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -8190,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -8222,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -8254,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
@@ -8286,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -8318,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
@@ -8350,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -8382,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
         <v>13</v>
       </c>
@@ -8414,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
         <v>13</v>
       </c>
@@ -8446,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
         <v>13</v>
       </c>
@@ -8478,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
@@ -8510,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
         <v>13</v>
       </c>
@@ -8542,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
         <v>13</v>
       </c>
@@ -8574,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
         <v>13</v>
       </c>
@@ -8606,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
         <v>13</v>
       </c>
@@ -8638,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
@@ -8670,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
         <v>13</v>
       </c>
@@ -8702,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
         <v>13</v>
       </c>
@@ -8734,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
         <v>13</v>
       </c>
@@ -8766,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
         <v>14</v>
       </c>
@@ -8798,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
         <v>14</v>
       </c>
@@ -8830,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
         <v>14</v>
       </c>
@@ -8862,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="2" t="s">
         <v>14</v>
       </c>
@@ -8894,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -8926,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="2" t="s">
         <v>14</v>
       </c>
@@ -8958,7 +8953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
         <v>14</v>
       </c>
@@ -8990,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="2" t="s">
         <v>14</v>
       </c>
@@ -9022,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="2" t="s">
         <v>14</v>
       </c>
@@ -9054,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="2" t="s">
         <v>14</v>
       </c>
@@ -9086,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="2" t="s">
         <v>14</v>
       </c>
@@ -9118,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="2" t="s">
         <v>14</v>
       </c>
@@ -9150,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="2" t="s">
         <v>15</v>
       </c>
@@ -9182,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="2" t="s">
         <v>15</v>
       </c>
@@ -9214,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -9246,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="2" t="s">
         <v>15</v>
       </c>
@@ -9278,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="2" t="s">
         <v>15</v>
       </c>
@@ -9310,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="2" t="s">
         <v>15</v>
       </c>
@@ -9342,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="2" t="s">
         <v>15</v>
       </c>
@@ -9374,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
         <v>15</v>
       </c>
@@ -9406,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
         <v>15</v>
       </c>
@@ -9438,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
         <v>15</v>
       </c>
@@ -9470,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
         <v>15</v>
       </c>
@@ -9502,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
         <v>15</v>
       </c>
@@ -9534,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -9566,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -9598,7 +9593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -9630,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -9662,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -9694,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -9726,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -9758,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -9790,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -9822,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -9854,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -9886,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -9918,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
@@ -9940,8 +9935,8 @@
       <c r="G194" t="s">
         <v>57</v>
       </c>
-      <c r="H194">
-        <v>158.88</v>
+      <c r="H194" s="5">
+        <v>15888000</v>
       </c>
       <c r="I194">
         <v>0.29239999999999999</v>
@@ -9950,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -9982,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -10014,7 +10009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -10046,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="2" t="s">
         <v>17</v>
       </c>
@@ -10078,7 +10073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="2" t="s">
         <v>17</v>
       </c>
@@ -10110,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="2" t="s">
         <v>17</v>
       </c>
@@ -10142,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="2" t="s">
         <v>17</v>
       </c>
@@ -10174,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="2" t="s">
         <v>17</v>
       </c>
@@ -10206,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="2" t="s">
         <v>17</v>
       </c>
@@ -10238,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="2" t="s">
         <v>17</v>
       </c>
@@ -10270,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -10302,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="2" t="s">
         <v>18</v>
       </c>
@@ -10334,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="2" t="s">
         <v>18</v>
       </c>
@@ -10366,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -10398,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="2" t="s">
         <v>18</v>
       </c>
@@ -10430,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -10462,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="2" t="s">
         <v>18</v>
       </c>
@@ -10494,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="2" t="s">
         <v>18</v>
       </c>
@@ -10526,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="2" t="s">
         <v>18</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="2" t="s">
         <v>18</v>
       </c>
@@ -10590,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="2" t="s">
         <v>18</v>
       </c>
@@ -10622,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -10654,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="2" t="s">
         <v>18</v>
       </c>
@@ -10686,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="2" t="s">
         <v>19</v>
       </c>
@@ -10718,7 +10713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="2" t="s">
         <v>19</v>
       </c>
@@ -10750,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="2" t="s">
         <v>19</v>
       </c>
@@ -10782,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="2" t="s">
         <v>19</v>
       </c>
@@ -10814,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="2" t="s">
         <v>19</v>
       </c>
@@ -10846,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="2" t="s">
         <v>19</v>
       </c>
@@ -10878,7 +10873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="2" t="s">
         <v>19</v>
       </c>
@@ -10910,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="2" t="s">
         <v>19</v>
       </c>
@@ -10942,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="2" t="s">
         <v>19</v>
       </c>
@@ -10974,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="2" t="s">
         <v>19</v>
       </c>
@@ -11006,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="2" t="s">
         <v>19</v>
       </c>
@@ -11038,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="2" t="s">
         <v>19</v>
       </c>
@@ -11070,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="2" t="s">
         <v>20</v>
       </c>
@@ -11102,7 +11097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="2" t="s">
         <v>20</v>
       </c>
@@ -11134,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="2" t="s">
         <v>20</v>
       </c>
@@ -11166,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="2" t="s">
         <v>20</v>
       </c>
@@ -11198,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="2" t="s">
         <v>20</v>
       </c>
@@ -11230,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="2" t="s">
         <v>20</v>
       </c>
@@ -11262,7 +11257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="2" t="s">
         <v>20</v>
       </c>
@@ -11294,7 +11289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="2" t="s">
         <v>20</v>
       </c>
@@ -11326,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="2" t="s">
         <v>20</v>
       </c>
@@ -11358,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="2" t="s">
         <v>20</v>
       </c>
@@ -11390,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="2" t="s">
         <v>20</v>
       </c>
@@ -11422,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="2" t="s">
         <v>20</v>
       </c>
@@ -11454,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="2" t="s">
         <v>21</v>
       </c>
@@ -11486,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="2" t="s">
         <v>21</v>
       </c>
@@ -11518,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="2" t="s">
         <v>21</v>
       </c>
@@ -11550,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="2" t="s">
         <v>21</v>
       </c>
@@ -11582,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="2" t="s">
         <v>21</v>
       </c>
@@ -11614,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="2" t="s">
         <v>21</v>
       </c>
@@ -11646,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="2" t="s">
         <v>21</v>
       </c>
@@ -11678,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="2" t="s">
         <v>21</v>
       </c>
@@ -11710,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="2" t="s">
         <v>21</v>
       </c>
@@ -11742,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="2" t="s">
         <v>21</v>
       </c>
@@ -11774,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="2" t="s">
         <v>21</v>
       </c>
@@ -11806,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" s="2" t="s">
         <v>21</v>
       </c>
@@ -11838,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" s="2" t="s">
         <v>22</v>
       </c>
@@ -11870,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="2" t="s">
         <v>22</v>
       </c>
@@ -11902,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="2" t="s">
         <v>22</v>
       </c>
@@ -11934,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="2" t="s">
         <v>22</v>
       </c>
@@ -11966,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="2" t="s">
         <v>22</v>
       </c>
@@ -11998,7 +11993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="2" t="s">
         <v>22</v>
       </c>
@@ -12030,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="2" t="s">
         <v>22</v>
       </c>
@@ -12062,7 +12057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="2" t="s">
         <v>22</v>
       </c>
@@ -12094,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="2" t="s">
         <v>22</v>
       </c>
@@ -12126,7 +12121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="2" t="s">
         <v>22</v>
       </c>
@@ -12158,7 +12153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="2" t="s">
         <v>22</v>
       </c>
@@ -12190,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="2" t="s">
         <v>22</v>
       </c>
@@ -12222,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="2" t="s">
         <v>23</v>
       </c>
@@ -12254,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" s="2" t="s">
         <v>23</v>
       </c>
@@ -12286,7 +12281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="2" t="s">
         <v>23</v>
       </c>
@@ -12318,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="2" t="s">
         <v>23</v>
       </c>
@@ -12350,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="2" t="s">
         <v>23</v>
       </c>
@@ -12382,7 +12377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" s="2" t="s">
         <v>23</v>
       </c>
@@ -12414,7 +12409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="2" t="s">
         <v>23</v>
       </c>
@@ -12446,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" s="2" t="s">
         <v>23</v>
       </c>
@@ -12478,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" s="2" t="s">
         <v>23</v>
       </c>
@@ -12510,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" s="2" t="s">
         <v>23</v>
       </c>
@@ -12542,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" s="2" t="s">
         <v>23</v>
       </c>
@@ -12574,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" s="2" t="s">
         <v>23</v>
       </c>
@@ -12606,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" s="2" t="s">
         <v>24</v>
       </c>
@@ -12638,7 +12633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" s="2" t="s">
         <v>24</v>
       </c>
@@ -12670,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" s="2" t="s">
         <v>24</v>
       </c>
@@ -12702,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="2" t="s">
         <v>24</v>
       </c>
@@ -12734,7 +12729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" s="2" t="s">
         <v>24</v>
       </c>
@@ -12766,7 +12761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" s="2" t="s">
         <v>24</v>
       </c>
@@ -12798,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" s="2" t="s">
         <v>24</v>
       </c>
@@ -12830,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" s="2" t="s">
         <v>24</v>
       </c>
@@ -12862,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" s="2" t="s">
         <v>24</v>
       </c>
@@ -12894,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" s="2" t="s">
         <v>24</v>
       </c>
@@ -12926,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" s="2" t="s">
         <v>24</v>
       </c>
@@ -12958,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="2" t="s">
         <v>24</v>
       </c>
@@ -12990,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="2" t="s">
         <v>25</v>
       </c>
@@ -13022,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="2" t="s">
         <v>25</v>
       </c>
@@ -13054,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="2" t="s">
         <v>25</v>
       </c>
@@ -13086,7 +13081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="2" t="s">
         <v>25</v>
       </c>
@@ -13118,7 +13113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="2" t="s">
         <v>25</v>
       </c>
@@ -13150,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="2" t="s">
         <v>25</v>
       </c>
@@ -13182,7 +13177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="2" t="s">
         <v>25</v>
       </c>
@@ -13214,7 +13209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="2" t="s">
         <v>25</v>
       </c>
@@ -13246,7 +13241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="2" t="s">
         <v>25</v>
       </c>
@@ -13278,7 +13273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="2" t="s">
         <v>25</v>
       </c>
@@ -13310,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" s="2" t="s">
         <v>25</v>
       </c>
@@ -13342,7 +13337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" s="2" t="s">
         <v>25</v>
       </c>
@@ -13374,7 +13369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="2" t="s">
         <v>26</v>
       </c>
@@ -13406,7 +13401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="2" t="s">
         <v>26</v>
       </c>
@@ -13438,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="2" t="s">
         <v>26</v>
       </c>
@@ -13470,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="2" t="s">
         <v>26</v>
       </c>
@@ -13502,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="2" t="s">
         <v>26</v>
       </c>
@@ -13534,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="2" t="s">
         <v>26</v>
       </c>
@@ -13566,7 +13561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="2" t="s">
         <v>26</v>
       </c>
@@ -13598,7 +13593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="2" t="s">
         <v>26</v>
       </c>
@@ -13630,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="2" t="s">
         <v>26</v>
       </c>
@@ -13662,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="2" t="s">
         <v>26</v>
       </c>
@@ -13694,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="2" t="s">
         <v>26</v>
       </c>
@@ -13726,7 +13721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" s="2" t="s">
         <v>26</v>
       </c>
@@ -13758,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="2" t="s">
         <v>27</v>
       </c>
@@ -13790,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="2" t="s">
         <v>27</v>
       </c>
@@ -13822,7 +13817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="2" t="s">
         <v>27</v>
       </c>
@@ -13854,7 +13849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="2" t="s">
         <v>27</v>
       </c>
@@ -13886,7 +13881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="2" t="s">
         <v>27</v>
       </c>
@@ -13918,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" s="2" t="s">
         <v>27</v>
       </c>
@@ -13950,7 +13945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="2" t="s">
         <v>27</v>
       </c>
@@ -13982,7 +13977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10">
       <c r="A321" s="2" t="s">
         <v>27</v>
       </c>
@@ -14014,7 +14009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" s="2" t="s">
         <v>27</v>
       </c>
@@ -14046,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10">
       <c r="A323" s="2" t="s">
         <v>27</v>
       </c>
@@ -14078,7 +14073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10">
       <c r="A324" s="2" t="s">
         <v>27</v>
       </c>
@@ -14110,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10">
       <c r="A325" s="2" t="s">
         <v>27</v>
       </c>
@@ -14142,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10">
       <c r="A326" s="2" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" s="2" t="s">
         <v>28</v>
       </c>
@@ -14206,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10">
       <c r="A328" s="2" t="s">
         <v>28</v>
       </c>
@@ -14238,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10">
       <c r="A329" s="2" t="s">
         <v>28</v>
       </c>
@@ -14270,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10">
       <c r="A330" s="2" t="s">
         <v>28</v>
       </c>
@@ -14302,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10">
       <c r="A331" s="2" t="s">
         <v>28</v>
       </c>
@@ -14334,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10">
       <c r="A332" s="2" t="s">
         <v>28</v>
       </c>
@@ -14366,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10">
       <c r="A333" s="2" t="s">
         <v>28</v>
       </c>
@@ -14398,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10">
       <c r="A334" s="2" t="s">
         <v>28</v>
       </c>
@@ -14430,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10">
       <c r="A335" s="2" t="s">
         <v>28</v>
       </c>
@@ -14462,7 +14457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" s="2" t="s">
         <v>28</v>
       </c>
@@ -14494,7 +14489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" s="2" t="s">
         <v>28</v>
       </c>
@@ -14526,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="2" t="s">
         <v>29</v>
       </c>
@@ -14558,7 +14553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10">
       <c r="A339" s="2" t="s">
         <v>29</v>
       </c>
@@ -14590,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="2" t="s">
         <v>29</v>
       </c>
@@ -14622,7 +14617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" s="2" t="s">
         <v>29</v>
       </c>
@@ -14654,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" s="2" t="s">
         <v>29</v>
       </c>
@@ -14686,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" s="2" t="s">
         <v>29</v>
       </c>
@@ -14718,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" s="2" t="s">
         <v>29</v>
       </c>
@@ -14750,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10">
       <c r="A345" s="2" t="s">
         <v>29</v>
       </c>
@@ -14782,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" s="2" t="s">
         <v>29</v>
       </c>
@@ -14814,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" s="2" t="s">
         <v>29</v>
       </c>
@@ -14846,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10">
       <c r="A348" s="2" t="s">
         <v>29</v>
       </c>
@@ -14878,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" s="2" t="s">
         <v>29</v>
       </c>
@@ -14910,7 +14905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="2" t="s">
         <v>30</v>
       </c>
@@ -14942,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" s="2" t="s">
         <v>30</v>
       </c>
@@ -14974,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" s="2" t="s">
         <v>30</v>
       </c>
@@ -15006,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="2" t="s">
         <v>30</v>
       </c>
@@ -15038,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10">
       <c r="A354" s="2" t="s">
         <v>30</v>
       </c>
@@ -15070,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="2" t="s">
         <v>30</v>
       </c>
@@ -15102,7 +15097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="2" t="s">
         <v>30</v>
       </c>
@@ -15134,7 +15129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" s="2" t="s">
         <v>30</v>
       </c>
@@ -15166,7 +15161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="2" t="s">
         <v>30</v>
       </c>
@@ -15198,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="2" t="s">
         <v>30</v>
       </c>
@@ -15230,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" s="2" t="s">
         <v>30</v>
       </c>
@@ -15262,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="2" t="s">
         <v>30</v>
       </c>
@@ -15294,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" s="2" t="s">
         <v>31</v>
       </c>
@@ -15326,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" s="2" t="s">
         <v>31</v>
       </c>
@@ -15358,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" s="2" t="s">
         <v>31</v>
       </c>
@@ -15390,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="2" t="s">
         <v>31</v>
       </c>
@@ -15422,7 +15417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="2" t="s">
         <v>31</v>
       </c>
@@ -15454,7 +15449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="2" t="s">
         <v>31</v>
       </c>
@@ -15486,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="2" t="s">
         <v>31</v>
       </c>
@@ -15518,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" s="2" t="s">
         <v>31</v>
       </c>
@@ -15550,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" s="2" t="s">
         <v>31</v>
       </c>
@@ -15582,7 +15577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" s="2" t="s">
         <v>31</v>
       </c>
@@ -15614,7 +15609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" s="2" t="s">
         <v>31</v>
       </c>
@@ -15646,7 +15641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10">
       <c r="A373" s="2" t="s">
         <v>31</v>
       </c>
@@ -15678,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10">
       <c r="A374" s="2" t="s">
         <v>32</v>
       </c>
@@ -15710,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10">
       <c r="A375" s="2" t="s">
         <v>32</v>
       </c>
@@ -15742,7 +15737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10">
       <c r="A376" s="2" t="s">
         <v>32</v>
       </c>
@@ -15774,7 +15769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10">
       <c r="A377" s="2" t="s">
         <v>32</v>
       </c>
@@ -15806,7 +15801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" s="2" t="s">
         <v>32</v>
       </c>
@@ -15838,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10">
       <c r="A379" s="2" t="s">
         <v>32</v>
       </c>
@@ -15870,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10">
       <c r="A380" s="2" t="s">
         <v>32</v>
       </c>
@@ -15902,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10">
       <c r="A381" s="2" t="s">
         <v>32</v>
       </c>
@@ -15934,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10">
       <c r="A382" s="2" t="s">
         <v>32</v>
       </c>
@@ -15966,7 +15961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10">
       <c r="A383" s="2" t="s">
         <v>32</v>
       </c>
@@ -15998,7 +15993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10">
       <c r="A384" s="2" t="s">
         <v>32</v>
       </c>
@@ -16030,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10">
       <c r="A385" s="2" t="s">
         <v>32</v>
       </c>
@@ -16062,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10">
       <c r="A386" s="2" t="s">
         <v>33</v>
       </c>
@@ -16094,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10">
       <c r="A387" s="2" t="s">
         <v>33</v>
       </c>
@@ -16126,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10">
       <c r="A388" s="2" t="s">
         <v>33</v>
       </c>
@@ -16158,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10">
       <c r="A389" s="2" t="s">
         <v>33</v>
       </c>
@@ -16190,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10">
       <c r="A390" s="2" t="s">
         <v>33</v>
       </c>
@@ -16222,7 +16217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10">
       <c r="A391" s="2" t="s">
         <v>33</v>
       </c>
@@ -16254,7 +16249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10">
       <c r="A392" s="2" t="s">
         <v>33</v>
       </c>
@@ -16286,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10">
       <c r="A393" s="2" t="s">
         <v>33</v>
       </c>
@@ -16318,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10">
       <c r="A394" s="2" t="s">
         <v>33</v>
       </c>
@@ -16350,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10">
       <c r="A395" s="2" t="s">
         <v>33</v>
       </c>
@@ -16382,7 +16377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10">
       <c r="A396" s="2" t="s">
         <v>33</v>
       </c>
@@ -16414,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10">
       <c r="A397" s="2" t="s">
         <v>33</v>
       </c>
@@ -16446,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10">
       <c r="A398" s="2" t="s">
         <v>34</v>
       </c>
@@ -16478,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10">
       <c r="A399" s="2" t="s">
         <v>34</v>
       </c>
@@ -16510,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10">
       <c r="A400" s="2" t="s">
         <v>34</v>
       </c>
@@ -16542,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10">
       <c r="A401" s="2" t="s">
         <v>34</v>
       </c>
@@ -16574,7 +16569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10">
       <c r="A402" s="2" t="s">
         <v>34</v>
       </c>
@@ -16606,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10">
       <c r="A403" s="2" t="s">
         <v>34</v>
       </c>
@@ -16638,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10">
       <c r="A404" s="2" t="s">
         <v>34</v>
       </c>
@@ -16670,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10">
       <c r="A405" s="2" t="s">
         <v>34</v>
       </c>
@@ -16702,7 +16697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10">
       <c r="A406" s="2" t="s">
         <v>34</v>
       </c>
@@ -16734,7 +16729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -16766,7 +16761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10">
       <c r="A408" s="2" t="s">
         <v>34</v>
       </c>
@@ -16798,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10">
       <c r="A409" s="2" t="s">
         <v>34</v>
       </c>
@@ -16830,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10">
       <c r="A410" s="2" t="s">
         <v>35</v>
       </c>
@@ -16862,7 +16857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10">
       <c r="A411" s="2" t="s">
         <v>35</v>
       </c>
@@ -16894,7 +16889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10">
       <c r="A412" s="2" t="s">
         <v>35</v>
       </c>
@@ -16926,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10">
       <c r="A413" s="2" t="s">
         <v>35</v>
       </c>
@@ -16958,7 +16953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10">
       <c r="A414" s="2" t="s">
         <v>35</v>
       </c>
@@ -16990,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10">
       <c r="A415" s="2" t="s">
         <v>35</v>
       </c>
@@ -17022,7 +17017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10">
       <c r="A416" s="2" t="s">
         <v>35</v>
       </c>
@@ -17054,7 +17049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10">
       <c r="A417" s="2" t="s">
         <v>35</v>
       </c>
@@ -17086,7 +17081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10">
       <c r="A418" s="2" t="s">
         <v>35</v>
       </c>
@@ -17118,7 +17113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10">
       <c r="A419" s="2" t="s">
         <v>35</v>
       </c>
@@ -17150,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10">
       <c r="A420" s="2" t="s">
         <v>35</v>
       </c>
@@ -17182,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10">
       <c r="A421" s="2" t="s">
         <v>35</v>
       </c>
@@ -17214,7 +17209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10">
       <c r="A422" s="2" t="s">
         <v>36</v>
       </c>
@@ -17246,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10">
       <c r="A423" s="2" t="s">
         <v>36</v>
       </c>
@@ -17278,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10">
       <c r="A424" s="2" t="s">
         <v>36</v>
       </c>
@@ -17310,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10">
       <c r="A425" s="2" t="s">
         <v>36</v>
       </c>
@@ -17342,7 +17337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10">
       <c r="A426" s="2" t="s">
         <v>36</v>
       </c>
@@ -17374,7 +17369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10">
       <c r="A427" s="2" t="s">
         <v>36</v>
       </c>
@@ -17406,7 +17401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10">
       <c r="A428" s="2" t="s">
         <v>36</v>
       </c>
@@ -17438,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10">
       <c r="A429" s="2" t="s">
         <v>36</v>
       </c>
@@ -17470,7 +17465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10">
       <c r="A430" s="2" t="s">
         <v>36</v>
       </c>
@@ -17502,7 +17497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10">
       <c r="A431" s="2" t="s">
         <v>36</v>
       </c>
@@ -17534,7 +17529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10">
       <c r="A432" s="2" t="s">
         <v>36</v>
       </c>
@@ -17566,7 +17561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25">
       <c r="A433" s="2" t="s">
         <v>36</v>
       </c>
@@ -17598,7 +17593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25">
       <c r="A434" s="2" t="s">
         <v>37</v>
       </c>
@@ -17639,7 +17634,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25">
       <c r="A435" s="2" t="s">
         <v>37</v>
       </c>
@@ -17677,7 +17672,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25">
       <c r="A436" s="2" t="s">
         <v>37</v>
       </c>
@@ -17715,7 +17710,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25">
       <c r="A437" s="2" t="s">
         <v>37</v>
       </c>
@@ -17753,7 +17748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25">
       <c r="A438" s="2" t="s">
         <v>37</v>
       </c>
@@ -17791,7 +17786,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25">
       <c r="A439" s="2" t="s">
         <v>37</v>
       </c>
@@ -17829,7 +17824,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25">
       <c r="A440" s="2" t="s">
         <v>37</v>
       </c>
@@ -17867,7 +17862,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25">
       <c r="A441" s="2" t="s">
         <v>37</v>
       </c>
@@ -17905,7 +17900,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25">
       <c r="A442" s="2" t="s">
         <v>37</v>
       </c>
@@ -17943,7 +17938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25">
       <c r="A443" s="2" t="s">
         <v>37</v>
       </c>
@@ -17981,7 +17976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25">
       <c r="A444" s="2" t="s">
         <v>37</v>
       </c>
@@ -18019,7 +18014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25">
       <c r="A445" s="2" t="s">
         <v>37</v>
       </c>
@@ -18057,7 +18052,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25">
       <c r="A446" s="2" t="s">
         <v>38</v>
       </c>
@@ -18095,7 +18090,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25">
       <c r="A447" s="2" t="s">
         <v>38</v>
       </c>
@@ -18133,7 +18128,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25">
       <c r="A448" s="2" t="s">
         <v>38</v>
       </c>
@@ -18171,7 +18166,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25">
       <c r="A449" s="2" t="s">
         <v>38</v>
       </c>
@@ -18209,7 +18204,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25">
       <c r="A450" s="2" t="s">
         <v>38</v>
       </c>
@@ -18247,7 +18242,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25">
       <c r="A451" s="2" t="s">
         <v>38</v>
       </c>
@@ -18285,7 +18280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25">
       <c r="A452" s="2" t="s">
         <v>38</v>
       </c>
@@ -18323,7 +18318,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25">
       <c r="A453" s="2" t="s">
         <v>38</v>
       </c>
@@ -18361,7 +18356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25">
       <c r="A454" s="2" t="s">
         <v>38</v>
       </c>
@@ -18399,7 +18394,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25">
       <c r="A455" s="2" t="s">
         <v>38</v>
       </c>
@@ -18437,7 +18432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25">
       <c r="A456" s="2" t="s">
         <v>38</v>
       </c>
@@ -18475,7 +18470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25">
       <c r="A457" s="2" t="s">
         <v>38</v>
       </c>
@@ -18513,7 +18508,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25">
       <c r="A458" s="2" t="s">
         <v>39</v>
       </c>
@@ -18551,7 +18546,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25">
       <c r="A459" s="2" t="s">
         <v>39</v>
       </c>
@@ -18589,7 +18584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25">
       <c r="A460" s="2" t="s">
         <v>39</v>
       </c>
@@ -18627,7 +18622,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25">
       <c r="A461" s="2" t="s">
         <v>39</v>
       </c>
@@ -18665,7 +18660,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25">
       <c r="A462" s="2" t="s">
         <v>39</v>
       </c>
@@ -18703,7 +18698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25">
       <c r="A463" s="2" t="s">
         <v>39</v>
       </c>
@@ -18741,7 +18736,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25">
       <c r="A464" s="2" t="s">
         <v>39</v>
       </c>
@@ -18779,7 +18774,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25">
       <c r="A465" s="2" t="s">
         <v>39</v>
       </c>
@@ -18817,7 +18812,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25">
       <c r="A466" s="2" t="s">
         <v>39</v>
       </c>
@@ -18855,7 +18850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25">
       <c r="A467" s="2" t="s">
         <v>39</v>
       </c>
@@ -18893,7 +18888,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25">
       <c r="A468" s="2" t="s">
         <v>39</v>
       </c>
@@ -18931,7 +18926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25">
       <c r="A469" s="2" t="s">
         <v>39</v>
       </c>
@@ -18970,7 +18965,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z469" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Z469"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\CMPC-manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2889E22-EE9B-48AD-8ED7-73612226CA5B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636B725-F8B9-4CA6-8A54-75C68AD67C21}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\CMPC-manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636B725-F8B9-4CA6-8A54-75C68AD67C21}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFF3FB3-DA33-4601-8D15-09E7D3111E4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9171,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="H194" s="4">
-        <v>15888000</v>
+        <v>15888</v>
       </c>
       <c r="I194">
         <v>0.29239999999999999</v>

--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\CMPC-manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFF3FB3-DA33-4601-8D15-09E7D3111E4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A376E108-12EF-4514-891C-CBA65B43AB53}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU" sheetId="4" r:id="rId1"/>
+    <sheet name="Lead Times" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SKU!$A$1:$M$469</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="80">
   <si>
     <t>100-AAA-05-016</t>
   </si>
@@ -217,6 +218,57 @@
   </si>
   <si>
     <t>pro_price</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>brazil</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>ecuador</t>
+  </si>
+  <si>
+    <t>peru</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>uruguay</t>
   </si>
 </sst>
 </file>
@@ -588,13 +640,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="283" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="283" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="284">
     <cellStyle name="Comma" xfId="283" builtinId="3"/>
@@ -1219,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
@@ -20474,4 +20527,280 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1498B488-EC29-409A-A4D1-C2D6F69144FE}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45</v>
+      </c>
+      <c r="F2" s="6">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6">
+        <v>60</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6">
+        <v>35</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6">
+        <v>65</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740E99C-B72E-4A72-8313-E4ED800C63A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SKU" sheetId="4" r:id="rId1"/>
     <sheet name="Lead Times" sheetId="5" r:id="rId2"/>
+    <sheet name="Lines" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SKU!$A$1:$M$469</definedName>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="97">
   <si>
     <t>100-AAA-05-016</t>
   </si>
@@ -288,21 +283,53 @@
   <si>
     <t>packets_per_pallet</t>
   </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>mano_obraD_cant_turno</t>
+  </si>
+  <si>
+    <t>mano_obraD_costo_turno</t>
+  </si>
+  <si>
+    <t>mano_obraI_cant_turno</t>
+  </si>
+  <si>
+    <t>mano_obraI_costo_turno</t>
+  </si>
+  <si>
+    <t>mano_obra_CO_hora</t>
+  </si>
+  <si>
+    <t>mantenimiento_turno</t>
+  </si>
+  <si>
+    <t>gastos_generales_mes</t>
+  </si>
+  <si>
+    <t>costosCO_CO</t>
+  </si>
+  <si>
+    <t>merma</t>
+  </si>
+  <si>
+    <t>line_type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,15 +683,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="283" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="283" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="283" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="283" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="284">
@@ -1287,29 +1314,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -28984,7 +29011,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M469" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:M469"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -28996,14 +29023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1498B488-EC29-409A-A4D1-C2D6F69144FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -29268,5 +29295,80 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2328119F-2BE8-4377-AEDC-02C21BBD9DB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU" sheetId="4" r:id="rId1"/>
@@ -320,9 +326,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -683,15 +689,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="283" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="283" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="283" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="283" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="284">
@@ -1314,32 +1320,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S469"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>307.83999999999997</v>
+        <v>307000.84000000003</v>
       </c>
       <c r="I2">
         <v>0.4163</v>
@@ -1457,7 +1463,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3522,7 +3528,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -4525,7 +4531,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -4584,7 +4590,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5233,7 +5239,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -5587,7 +5593,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -5646,7 +5652,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5764,7 +5770,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -5941,7 +5947,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -6118,7 +6124,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -6177,7 +6183,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -6236,7 +6242,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -6708,7 +6714,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -7062,7 +7068,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -7121,7 +7127,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -7534,7 +7540,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -7770,7 +7776,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -7888,7 +7894,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -8242,7 +8248,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -8419,7 +8425,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -8537,7 +8543,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -8596,7 +8602,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -8655,7 +8661,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -8714,7 +8720,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -8773,7 +8779,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -8950,7 +8956,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>10</v>
       </c>
@@ -9009,7 +9015,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -9068,7 +9074,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -9127,7 +9133,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -9186,7 +9192,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -9245,7 +9251,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -9363,7 +9369,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -9481,7 +9487,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -9540,7 +9546,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -9717,7 +9723,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -9776,7 +9782,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -9835,7 +9841,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -9953,7 +9959,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -10012,7 +10018,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -10130,7 +10136,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -10307,7 +10313,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -10366,7 +10372,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -10484,7 +10490,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -10543,7 +10549,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
@@ -10602,7 +10608,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -10720,7 +10726,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -10897,7 +10903,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -10956,7 +10962,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -11074,7 +11080,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -11192,7 +11198,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -11251,7 +11257,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -11310,7 +11316,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -11369,7 +11375,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>14</v>
       </c>
@@ -11428,7 +11434,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>14</v>
       </c>
@@ -11487,7 +11493,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
@@ -11605,7 +11611,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
@@ -11664,7 +11670,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>14</v>
       </c>
@@ -11723,7 +11729,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>14</v>
       </c>
@@ -11782,7 +11788,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
@@ -11841,7 +11847,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>14</v>
       </c>
@@ -11900,7 +11906,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>15</v>
       </c>
@@ -12077,7 +12083,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>15</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>15</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>15</v>
       </c>
@@ -12254,7 +12260,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>15</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>15</v>
       </c>
@@ -12372,7 +12378,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>15</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>15</v>
       </c>
@@ -12490,7 +12496,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>15</v>
       </c>
@@ -12549,7 +12555,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>15</v>
       </c>
@@ -12608,7 +12614,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>15</v>
       </c>
@@ -12667,7 +12673,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>15</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -12785,7 +12791,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -12844,7 +12850,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -12903,7 +12909,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -12962,7 +12968,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -13021,7 +13027,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -13080,7 +13086,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -13139,7 +13145,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -13198,7 +13204,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -13257,7 +13263,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -13316,7 +13322,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -13375,7 +13381,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -13434,7 +13440,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>17</v>
       </c>
@@ -13493,7 +13499,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>17</v>
       </c>
@@ -13552,7 +13558,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>17</v>
       </c>
@@ -13611,7 +13617,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>17</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>17</v>
       </c>
@@ -13729,7 +13735,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>17</v>
       </c>
@@ -13788,7 +13794,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>17</v>
       </c>
@@ -13847,7 +13853,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>17</v>
       </c>
@@ -13906,7 +13912,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>17</v>
       </c>
@@ -13965,7 +13971,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>17</v>
       </c>
@@ -14024,7 +14030,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>17</v>
       </c>
@@ -14083,7 +14089,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>17</v>
       </c>
@@ -14142,7 +14148,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>18</v>
       </c>
@@ -14201,7 +14207,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>18</v>
       </c>
@@ -14260,7 +14266,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>18</v>
       </c>
@@ -14319,7 +14325,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>18</v>
       </c>
@@ -14378,7 +14384,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>18</v>
       </c>
@@ -14437,7 +14443,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>18</v>
       </c>
@@ -14496,7 +14502,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>18</v>
       </c>
@@ -14555,7 +14561,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>18</v>
       </c>
@@ -14614,7 +14620,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>18</v>
       </c>
@@ -14673,7 +14679,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>18</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>18</v>
       </c>
@@ -14791,7 +14797,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>18</v>
       </c>
@@ -14850,7 +14856,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>19</v>
       </c>
@@ -14909,7 +14915,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>19</v>
       </c>
@@ -14968,7 +14974,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>19</v>
       </c>
@@ -15027,7 +15033,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>19</v>
       </c>
@@ -15086,7 +15092,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>19</v>
       </c>
@@ -15145,7 +15151,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -15204,7 +15210,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>19</v>
       </c>
@@ -15263,7 +15269,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>19</v>
       </c>
@@ -15322,7 +15328,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
@@ -15381,7 +15387,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
@@ -15440,7 +15446,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -15499,7 +15505,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>19</v>
       </c>
@@ -15558,7 +15564,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>20</v>
       </c>
@@ -15617,7 +15623,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>20</v>
       </c>
@@ -15676,7 +15682,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>20</v>
       </c>
@@ -15735,7 +15741,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>20</v>
       </c>
@@ -15794,7 +15800,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>20</v>
       </c>
@@ -15853,7 +15859,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>20</v>
       </c>
@@ -15912,7 +15918,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>20</v>
       </c>
@@ -15971,7 +15977,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
@@ -16030,7 +16036,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>20</v>
       </c>
@@ -16089,7 +16095,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>20</v>
       </c>
@@ -16148,7 +16154,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>20</v>
       </c>
@@ -16207,7 +16213,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
@@ -16266,7 +16272,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>21</v>
       </c>
@@ -16325,7 +16331,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>21</v>
       </c>
@@ -16384,7 +16390,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -16443,7 +16449,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>21</v>
       </c>
@@ -16502,7 +16508,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>21</v>
       </c>
@@ -16561,7 +16567,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>21</v>
       </c>
@@ -16620,7 +16626,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>21</v>
       </c>
@@ -16679,7 +16685,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>21</v>
       </c>
@@ -16738,7 +16744,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>21</v>
       </c>
@@ -16797,7 +16803,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>21</v>
       </c>
@@ -16856,7 +16862,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>21</v>
       </c>
@@ -16915,7 +16921,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>21</v>
       </c>
@@ -16974,7 +16980,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>22</v>
       </c>
@@ -17033,7 +17039,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>22</v>
       </c>
@@ -17092,7 +17098,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>22</v>
       </c>
@@ -17151,7 +17157,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>22</v>
       </c>
@@ -17210,7 +17216,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>22</v>
       </c>
@@ -17269,7 +17275,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="271" spans="1:19">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>22</v>
       </c>
@@ -17328,7 +17334,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="272" spans="1:19">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>22</v>
       </c>
@@ -17387,7 +17393,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="273" spans="1:19">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>22</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="274" spans="1:19">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>22</v>
       </c>
@@ -17505,7 +17511,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="275" spans="1:19">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>22</v>
       </c>
@@ -17564,7 +17570,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="276" spans="1:19">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>22</v>
       </c>
@@ -17623,7 +17629,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="277" spans="1:19">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>22</v>
       </c>
@@ -17682,7 +17688,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="278" spans="1:19">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>23</v>
       </c>
@@ -17741,7 +17747,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:19">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>23</v>
       </c>
@@ -17800,7 +17806,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="280" spans="1:19">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>23</v>
       </c>
@@ -17859,7 +17865,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="281" spans="1:19">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>23</v>
       </c>
@@ -17918,7 +17924,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="282" spans="1:19">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>23</v>
       </c>
@@ -17977,7 +17983,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="283" spans="1:19">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>23</v>
       </c>
@@ -18036,7 +18042,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="284" spans="1:19">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>23</v>
       </c>
@@ -18095,7 +18101,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="285" spans="1:19">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>23</v>
       </c>
@@ -18154,7 +18160,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="286" spans="1:19">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>23</v>
       </c>
@@ -18213,7 +18219,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="287" spans="1:19">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>23</v>
       </c>
@@ -18272,7 +18278,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="288" spans="1:19">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>23</v>
       </c>
@@ -18331,7 +18337,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>23</v>
       </c>
@@ -18390,7 +18396,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>24</v>
       </c>
@@ -18449,7 +18455,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>24</v>
       </c>
@@ -18508,7 +18514,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>24</v>
       </c>
@@ -18567,7 +18573,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>24</v>
       </c>
@@ -18626,7 +18632,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>24</v>
       </c>
@@ -18685,7 +18691,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>24</v>
       </c>
@@ -18744,7 +18750,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>24</v>
       </c>
@@ -18803,7 +18809,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>24</v>
       </c>
@@ -18862,7 +18868,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>24</v>
       </c>
@@ -18921,7 +18927,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>24</v>
       </c>
@@ -18980,7 +18986,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>24</v>
       </c>
@@ -19039,7 +19045,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>24</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>25</v>
       </c>
@@ -19157,7 +19163,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>25</v>
       </c>
@@ -19216,7 +19222,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>25</v>
       </c>
@@ -19275,7 +19281,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>25</v>
       </c>
@@ -19334,7 +19340,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>25</v>
       </c>
@@ -19393,7 +19399,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="307" spans="1:19">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>25</v>
       </c>
@@ -19452,7 +19458,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="308" spans="1:19">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>25</v>
       </c>
@@ -19511,7 +19517,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>25</v>
       </c>
@@ -19570,7 +19576,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>25</v>
       </c>
@@ -19629,7 +19635,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>25</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>25</v>
       </c>
@@ -19747,7 +19753,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
@@ -19806,7 +19812,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
@@ -19865,7 +19871,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>26</v>
       </c>
@@ -19924,7 +19930,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>26</v>
       </c>
@@ -19983,7 +19989,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>26</v>
       </c>
@@ -20042,7 +20048,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>26</v>
       </c>
@@ -20101,7 +20107,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>26</v>
       </c>
@@ -20160,7 +20166,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>26</v>
       </c>
@@ -20219,7 +20225,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>26</v>
       </c>
@@ -20278,7 +20284,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>26</v>
       </c>
@@ -20337,7 +20343,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="323" spans="1:19">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>26</v>
       </c>
@@ -20396,7 +20402,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="324" spans="1:19">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>26</v>
       </c>
@@ -20455,7 +20461,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="325" spans="1:19">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>26</v>
       </c>
@@ -20514,7 +20520,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="326" spans="1:19">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>27</v>
       </c>
@@ -20573,7 +20579,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="327" spans="1:19">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>27</v>
       </c>
@@ -20632,7 +20638,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="328" spans="1:19">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>27</v>
       </c>
@@ -20691,7 +20697,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="329" spans="1:19">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>27</v>
       </c>
@@ -20750,7 +20756,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="330" spans="1:19">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>27</v>
       </c>
@@ -20809,7 +20815,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="331" spans="1:19">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>27</v>
       </c>
@@ -20868,7 +20874,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="332" spans="1:19">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>27</v>
       </c>
@@ -20927,7 +20933,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="333" spans="1:19">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>27</v>
       </c>
@@ -20986,7 +20992,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="334" spans="1:19">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>27</v>
       </c>
@@ -21045,7 +21051,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="335" spans="1:19">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>27</v>
       </c>
@@ -21104,7 +21110,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>27</v>
       </c>
@@ -21163,7 +21169,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>27</v>
       </c>
@@ -21222,7 +21228,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>28</v>
       </c>
@@ -21281,7 +21287,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>28</v>
       </c>
@@ -21340,7 +21346,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>28</v>
       </c>
@@ -21399,7 +21405,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>28</v>
       </c>
@@ -21458,7 +21464,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>28</v>
       </c>
@@ -21517,7 +21523,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>28</v>
       </c>
@@ -21576,7 +21582,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>28</v>
       </c>
@@ -21635,7 +21641,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>28</v>
       </c>
@@ -21694,7 +21700,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="346" spans="1:19">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>28</v>
       </c>
@@ -21753,7 +21759,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="347" spans="1:19">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -21812,7 +21818,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="348" spans="1:19">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>28</v>
       </c>
@@ -21871,7 +21877,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="349" spans="1:19">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>28</v>
       </c>
@@ -21930,7 +21936,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="350" spans="1:19">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>29</v>
       </c>
@@ -21989,7 +21995,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>29</v>
       </c>
@@ -22048,7 +22054,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>29</v>
       </c>
@@ -22107,7 +22113,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="353" spans="1:19">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>29</v>
       </c>
@@ -22166,7 +22172,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="354" spans="1:19">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>29</v>
       </c>
@@ -22225,7 +22231,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="355" spans="1:19">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>29</v>
       </c>
@@ -22284,7 +22290,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="356" spans="1:19">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>29</v>
       </c>
@@ -22343,7 +22349,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="357" spans="1:19">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>29</v>
       </c>
@@ -22402,7 +22408,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="358" spans="1:19">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>29</v>
       </c>
@@ -22461,7 +22467,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="359" spans="1:19">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>29</v>
       </c>
@@ -22520,7 +22526,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="360" spans="1:19">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>29</v>
       </c>
@@ -22579,7 +22585,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="361" spans="1:19">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>29</v>
       </c>
@@ -22638,7 +22644,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="362" spans="1:19">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>30</v>
       </c>
@@ -22697,7 +22703,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="363" spans="1:19">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>30</v>
       </c>
@@ -22756,7 +22762,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="364" spans="1:19">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>30</v>
       </c>
@@ -22815,7 +22821,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>30</v>
       </c>
@@ -22874,7 +22880,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>30</v>
       </c>
@@ -22933,7 +22939,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="367" spans="1:19">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>30</v>
       </c>
@@ -22992,7 +22998,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="368" spans="1:19">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>30</v>
       </c>
@@ -23051,7 +23057,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="369" spans="1:19">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>30</v>
       </c>
@@ -23110,7 +23116,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="370" spans="1:19">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>30</v>
       </c>
@@ -23169,7 +23175,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="371" spans="1:19">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>30</v>
       </c>
@@ -23228,7 +23234,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="372" spans="1:19">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>30</v>
       </c>
@@ -23287,7 +23293,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="373" spans="1:19">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>30</v>
       </c>
@@ -23346,7 +23352,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="374" spans="1:19">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>31</v>
       </c>
@@ -23405,7 +23411,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="375" spans="1:19">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>31</v>
       </c>
@@ -23464,7 +23470,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="376" spans="1:19">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>31</v>
       </c>
@@ -23523,7 +23529,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="377" spans="1:19">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>31</v>
       </c>
@@ -23582,7 +23588,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="378" spans="1:19">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>31</v>
       </c>
@@ -23641,7 +23647,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="379" spans="1:19">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>31</v>
       </c>
@@ -23700,7 +23706,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="380" spans="1:19">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>31</v>
       </c>
@@ -23759,7 +23765,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="381" spans="1:19">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>31</v>
       </c>
@@ -23818,7 +23824,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="382" spans="1:19">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>31</v>
       </c>
@@ -23877,7 +23883,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="383" spans="1:19">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>31</v>
       </c>
@@ -23936,7 +23942,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:19">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>31</v>
       </c>
@@ -23995,7 +24001,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>31</v>
       </c>
@@ -24054,7 +24060,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>32</v>
       </c>
@@ -24113,7 +24119,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>32</v>
       </c>
@@ -24172,7 +24178,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>32</v>
       </c>
@@ -24231,7 +24237,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>32</v>
       </c>
@@ -24290,7 +24296,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>32</v>
       </c>
@@ -24349,7 +24355,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="391" spans="1:19">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>32</v>
       </c>
@@ -24408,7 +24414,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="392" spans="1:19">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>32</v>
       </c>
@@ -24467,7 +24473,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="393" spans="1:19">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>32</v>
       </c>
@@ -24526,7 +24532,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="394" spans="1:19">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>32</v>
       </c>
@@ -24585,7 +24591,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="395" spans="1:19">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>32</v>
       </c>
@@ -24644,7 +24650,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="396" spans="1:19">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>32</v>
       </c>
@@ -24703,7 +24709,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="397" spans="1:19">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>32</v>
       </c>
@@ -24762,7 +24768,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="398" spans="1:19">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>33</v>
       </c>
@@ -24821,7 +24827,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="399" spans="1:19">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>33</v>
       </c>
@@ -24880,7 +24886,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="400" spans="1:19">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>33</v>
       </c>
@@ -24939,7 +24945,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="401" spans="1:19">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>33</v>
       </c>
@@ -24998,7 +25004,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="402" spans="1:19">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>33</v>
       </c>
@@ -25057,7 +25063,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="403" spans="1:19">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>33</v>
       </c>
@@ -25116,7 +25122,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="404" spans="1:19">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>33</v>
       </c>
@@ -25175,7 +25181,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="405" spans="1:19">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>33</v>
       </c>
@@ -25234,7 +25240,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="406" spans="1:19">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>33</v>
       </c>
@@ -25293,7 +25299,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="407" spans="1:19">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>33</v>
       </c>
@@ -25352,7 +25358,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="408" spans="1:19">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>33</v>
       </c>
@@ -25411,7 +25417,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="409" spans="1:19">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>33</v>
       </c>
@@ -25470,7 +25476,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="410" spans="1:19">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>34</v>
       </c>
@@ -25529,7 +25535,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="411" spans="1:19">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>34</v>
       </c>
@@ -25588,7 +25594,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="412" spans="1:19">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>34</v>
       </c>
@@ -25647,7 +25653,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="413" spans="1:19">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>34</v>
       </c>
@@ -25706,7 +25712,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="414" spans="1:19">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>34</v>
       </c>
@@ -25765,7 +25771,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="415" spans="1:19">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>34</v>
       </c>
@@ -25824,7 +25830,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="416" spans="1:19">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>34</v>
       </c>
@@ -25883,7 +25889,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="417" spans="1:19">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>34</v>
       </c>
@@ -25942,7 +25948,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="418" spans="1:19">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>34</v>
       </c>
@@ -26001,7 +26007,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="419" spans="1:19">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>34</v>
       </c>
@@ -26060,7 +26066,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="420" spans="1:19">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>34</v>
       </c>
@@ -26119,7 +26125,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="421" spans="1:19">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>34</v>
       </c>
@@ -26178,7 +26184,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="422" spans="1:19">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>35</v>
       </c>
@@ -26237,7 +26243,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>35</v>
       </c>
@@ -26296,7 +26302,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="424" spans="1:19">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>35</v>
       </c>
@@ -26355,7 +26361,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="425" spans="1:19">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>35</v>
       </c>
@@ -26414,7 +26420,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="426" spans="1:19">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>35</v>
       </c>
@@ -26473,7 +26479,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="1:19">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>35</v>
       </c>
@@ -26532,7 +26538,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="428" spans="1:19">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>35</v>
       </c>
@@ -26591,7 +26597,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="429" spans="1:19">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>35</v>
       </c>
@@ -26650,7 +26656,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="430" spans="1:19">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>35</v>
       </c>
@@ -26709,7 +26715,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="431" spans="1:19">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>35</v>
       </c>
@@ -26768,7 +26774,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="432" spans="1:19">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>35</v>
       </c>
@@ -26827,7 +26833,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="433" spans="1:19">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>35</v>
       </c>
@@ -26886,7 +26892,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="434" spans="1:19">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>36</v>
       </c>
@@ -26945,7 +26951,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="435" spans="1:19">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>36</v>
       </c>
@@ -27004,7 +27010,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="436" spans="1:19">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>36</v>
       </c>
@@ -27063,7 +27069,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="437" spans="1:19">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>36</v>
       </c>
@@ -27122,7 +27128,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="438" spans="1:19">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>36</v>
       </c>
@@ -27181,7 +27187,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="439" spans="1:19">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>36</v>
       </c>
@@ -27240,7 +27246,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="440" spans="1:19">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>36</v>
       </c>
@@ -27299,7 +27305,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="441" spans="1:19">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>36</v>
       </c>
@@ -27358,7 +27364,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="442" spans="1:19">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>36</v>
       </c>
@@ -27417,7 +27423,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="443" spans="1:19">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>36</v>
       </c>
@@ -27476,7 +27482,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="444" spans="1:19">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>36</v>
       </c>
@@ -27535,7 +27541,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="445" spans="1:19">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>36</v>
       </c>
@@ -27594,7 +27600,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="446" spans="1:19">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>37</v>
       </c>
@@ -27653,7 +27659,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="447" spans="1:19">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>37</v>
       </c>
@@ -27712,7 +27718,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="448" spans="1:19">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>37</v>
       </c>
@@ -27771,7 +27777,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="449" spans="1:19">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>37</v>
       </c>
@@ -27830,7 +27836,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="450" spans="1:19">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>37</v>
       </c>
@@ -27889,7 +27895,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="451" spans="1:19">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>37</v>
       </c>
@@ -27948,7 +27954,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="452" spans="1:19">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>37</v>
       </c>
@@ -28007,7 +28013,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="453" spans="1:19">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>37</v>
       </c>
@@ -28066,7 +28072,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="454" spans="1:19">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>37</v>
       </c>
@@ -28125,7 +28131,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="455" spans="1:19">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>37</v>
       </c>
@@ -28184,7 +28190,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="456" spans="1:19">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>37</v>
       </c>
@@ -28243,7 +28249,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="457" spans="1:19">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>37</v>
       </c>
@@ -28302,7 +28308,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="458" spans="1:19">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>38</v>
       </c>
@@ -28361,7 +28367,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="459" spans="1:19">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>38</v>
       </c>
@@ -28420,7 +28426,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="460" spans="1:19">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>38</v>
       </c>
@@ -28479,7 +28485,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="461" spans="1:19">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>38</v>
       </c>
@@ -28538,7 +28544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="462" spans="1:19">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>38</v>
       </c>
@@ -28597,7 +28603,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="463" spans="1:19">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>38</v>
       </c>
@@ -28656,7 +28662,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="464" spans="1:19">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>38</v>
       </c>
@@ -28715,7 +28721,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="465" spans="1:19">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>38</v>
       </c>
@@ -28774,7 +28780,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="466" spans="1:19">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>38</v>
       </c>
@@ -28833,7 +28839,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="467" spans="1:19">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>38</v>
       </c>
@@ -28892,7 +28898,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="468" spans="1:19">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>38</v>
       </c>
@@ -28951,7 +28957,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="469" spans="1:19">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>38</v>
       </c>
@@ -29011,7 +29017,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M469"/>
+  <autoFilter ref="A1:M469" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -29023,16 +29029,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -29061,7 +29067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -29090,7 +29096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -29119,7 +29125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
@@ -29148,7 +29154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -29177,7 +29183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -29206,7 +29212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -29235,7 +29241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -29264,7 +29270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -29304,28 +29310,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -29361,6 +29367,918 @@
       </c>
       <c r="L1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputCMPC.xlsx
+++ b/InputCMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8164B8-28BE-4F3A-9B47-5BBD0B5F995B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC8CD7-A857-4191-8EEC-7EF50C6940FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,10 @@
     <t>fte</t>
   </si>
   <si>
-    <t>co_size</t>
+    <t>co_size_time</t>
   </si>
   <si>
-    <t>co_packsize</t>
+    <t>co_packsize_time</t>
   </si>
 </sst>
 </file>
@@ -27912,7 +27912,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O25"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
